--- a/Zeitplanung.xlsx
+++ b/Zeitplanung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BLJ\Projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFCA0A87-7C8C-4C97-BDA6-2F056CB85396}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B386389B-FD13-4C9A-A854-69F7F25FAE2C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="4050" windowWidth="29040" windowHeight="15840" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -125,9 +125,6 @@
     <t>Ist</t>
   </si>
   <si>
-    <t>&lt;Projektname&gt;</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
@@ -246,6 +243,9 @@
   </si>
   <si>
     <t>Mit hohen Scores neue Schlangenfarben freischalten</t>
+  </si>
+  <si>
+    <t>the deadly snake</t>
   </si>
 </sst>
 </file>
@@ -2112,8 +2112,8 @@
   </sheetPr>
   <dimension ref="A1:BJ43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AB20" sqref="AB20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AK18" sqref="AK18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2129,7 +2129,7 @@
   <sheetData>
     <row r="1" spans="1:62" ht="24.75" x14ac:dyDescent="0.45">
       <c r="A1" s="24" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -2234,7 +2234,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="86"/>
       <c r="H3" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
@@ -2364,7 +2364,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="22"/>
       <c r="H5" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I5" s="23"/>
       <c r="J5" s="6"/>
@@ -2437,13 +2437,13 @@
       </c>
       <c r="D7" s="90"/>
       <c r="E7" s="28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G7" s="91" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H7" s="91"/>
       <c r="I7" s="91"/>
@@ -2452,7 +2452,7 @@
       <c r="L7" s="91"/>
       <c r="M7" s="92"/>
       <c r="N7" s="91" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O7" s="91"/>
       <c r="P7" s="91"/>
@@ -2461,7 +2461,7 @@
       <c r="S7" s="91"/>
       <c r="T7" s="92"/>
       <c r="U7" s="91" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V7" s="91"/>
       <c r="W7" s="91"/>
@@ -2470,7 +2470,7 @@
       <c r="Z7" s="91"/>
       <c r="AA7" s="92"/>
       <c r="AB7" s="93" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC7" s="91"/>
       <c r="AD7" s="91"/>
@@ -2479,7 +2479,7 @@
       <c r="AG7" s="91"/>
       <c r="AH7" s="92"/>
       <c r="AI7" s="91" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AJ7" s="91"/>
       <c r="AK7" s="91"/>
@@ -2488,7 +2488,7 @@
       <c r="AN7" s="91"/>
       <c r="AO7" s="92"/>
       <c r="AP7" s="93" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AQ7" s="91"/>
       <c r="AR7" s="91"/>
@@ -2497,7 +2497,7 @@
       <c r="AU7" s="91"/>
       <c r="AV7" s="92"/>
       <c r="AW7" s="91" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AX7" s="91"/>
       <c r="AY7" s="91"/>
@@ -2506,7 +2506,7 @@
       <c r="BB7" s="91"/>
       <c r="BC7" s="92"/>
       <c r="BD7" s="93" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="BE7" s="91"/>
       <c r="BF7" s="91"/>
@@ -2530,175 +2530,175 @@
         <v>4</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G8" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="I8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="L8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="O8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="14" t="s">
+      <c r="P8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="R8" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="S8" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="M8" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="N8" s="14" t="s">
+      <c r="T8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="U8" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="V8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="O8" s="15" t="s">
+      <c r="W8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="X8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y8" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="P8" s="15" t="s">
+      <c r="Z8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB8" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="Q8" s="14" t="s">
+      <c r="AD8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF8" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="R8" s="14" t="s">
+      <c r="AG8" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="S8" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="T8" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="U8" s="14" t="s">
+      <c r="AH8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI8" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="V8" s="15" t="s">
+      <c r="AK8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AM8" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="W8" s="15" t="s">
+      <c r="AN8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="AP8" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AQ8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="X8" s="14" t="s">
+      <c r="AR8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AT8" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="Y8" s="14" t="s">
+      <c r="AU8" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="Z8" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA8" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB8" s="16" t="s">
+      <c r="AV8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="AW8" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AX8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="AC8" s="15" t="s">
+      <c r="AY8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AZ8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="BA8" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="AD8" s="15" t="s">
+      <c r="BB8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="BC8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="BD8" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="BE8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="AE8" s="14" t="s">
+      <c r="BF8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="BG8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="BH8" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="AF8" s="14" t="s">
+      <c r="BI8" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="AG8" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="AH8" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="AI8" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="AJ8" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="AK8" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="AL8" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="AM8" s="14" t="s">
+      <c r="BJ8" s="25" t="s">
         <v>19</v>
-      </c>
-      <c r="AN8" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="AO8" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="AP8" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="AQ8" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="AR8" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="AS8" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="AT8" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="AU8" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="AV8" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="AW8" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="AX8" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="AY8" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="AZ8" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="BA8" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="BB8" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="BC8" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="BD8" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="BE8" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="BF8" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="BG8" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="BH8" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="BI8" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="BJ8" s="25" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -2706,7 +2706,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="41">
         <f>SUM(C10:C13)</f>
@@ -2783,14 +2783,14 @@
         <v>12</v>
       </c>
       <c r="C10" s="47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D10" s="84"/>
       <c r="E10" s="48">
         <v>1</v>
       </c>
       <c r="F10" s="88" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G10" s="53"/>
       <c r="H10" s="54"/>
@@ -2854,7 +2854,7 @@
         <v>102</v>
       </c>
       <c r="B11" s="44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="49">
         <v>1</v>
@@ -2933,15 +2933,12 @@
         <v>103</v>
       </c>
       <c r="B12" s="45" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="49">
         <v>5</v>
       </c>
-      <c r="D12" s="83">
-        <f>SUM(G12:BJ12)</f>
-        <v>0</v>
-      </c>
+      <c r="D12" s="83"/>
       <c r="E12" s="50">
         <v>1</v>
       </c>
@@ -3008,17 +3005,17 @@
         <v>104</v>
       </c>
       <c r="B13" s="44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D13" s="83"/>
       <c r="E13" s="50">
         <v>1</v>
       </c>
       <c r="F13" s="88" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G13" s="59"/>
       <c r="H13" s="60"/>
@@ -3156,7 +3153,7 @@
         <v>201</v>
       </c>
       <c r="B15" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="49">
         <v>0.5</v>
@@ -3167,7 +3164,7 @@
       </c>
       <c r="E15" s="50"/>
       <c r="F15" s="89" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G15" s="53"/>
       <c r="H15" s="54"/>
@@ -3231,7 +3228,7 @@
         <v>202</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="49">
         <v>2</v>
@@ -3447,7 +3444,7 @@
         <v>301</v>
       </c>
       <c r="B19" s="46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" s="49"/>
       <c r="D19" s="83">
@@ -3518,7 +3515,7 @@
         <v>302</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" s="49"/>
       <c r="D20" s="83">
@@ -3589,7 +3586,7 @@
         <v>303</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C21" s="49"/>
       <c r="D21" s="83">
@@ -3660,7 +3657,7 @@
         <v>304</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C22" s="49"/>
       <c r="D22" s="83">
@@ -3731,7 +3728,7 @@
         <v>305</v>
       </c>
       <c r="B23" s="46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C23" s="49"/>
       <c r="D23" s="83">
@@ -3802,7 +3799,7 @@
         <v>306</v>
       </c>
       <c r="B24" s="46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C24" s="49"/>
       <c r="D24" s="83">
@@ -3873,7 +3870,7 @@
         <v>307</v>
       </c>
       <c r="B25" s="46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C25" s="49"/>
       <c r="D25" s="83">
@@ -3944,7 +3941,7 @@
         <v>308</v>
       </c>
       <c r="B26" s="46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C26" s="49"/>
       <c r="D26" s="83">
@@ -4365,7 +4362,7 @@
         <v>401</v>
       </c>
       <c r="B32" s="46" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C32" s="49"/>
       <c r="D32" s="83">
@@ -4436,7 +4433,7 @@
         <v>402</v>
       </c>
       <c r="B33" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C33" s="49"/>
       <c r="D33" s="83">
@@ -4507,7 +4504,7 @@
         <v>403</v>
       </c>
       <c r="B34" s="46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C34" s="49"/>
       <c r="D34" s="83">
@@ -4721,7 +4718,7 @@
         <v>501</v>
       </c>
       <c r="B37" s="46" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C37" s="49"/>
       <c r="D37" s="83">
@@ -4935,7 +4932,7 @@
         <v>601</v>
       </c>
       <c r="B40" s="46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C40" s="49"/>
       <c r="D40" s="83">
@@ -5006,7 +5003,7 @@
         <v>602</v>
       </c>
       <c r="B41" s="46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C41" s="49"/>
       <c r="D41" s="83">
@@ -5382,7 +5379,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" scenarios="1" formatCells="0"/>
+  <sheetProtection formatCells="0"/>
   <mergeCells count="9">
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="G7:M7"/>

--- a/Zeitplanung.xlsx
+++ b/Zeitplanung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BLJ\Projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B386389B-FD13-4C9A-A854-69F7F25FAE2C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F38A26D-58B9-4283-A40A-95990752C070}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="4050" windowWidth="29040" windowHeight="15840" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="61">
   <si>
     <t>Nr.</t>
   </si>
@@ -236,16 +236,28 @@
     <t>Äpfel einsammeln</t>
   </si>
   <si>
-    <t>Verschiedenfarbige Schlangen</t>
-  </si>
-  <si>
-    <t>Schön gestalteter Hintergrund</t>
-  </si>
-  <si>
-    <t>Mit hohen Scores neue Schlangenfarben freischalten</t>
-  </si>
-  <si>
     <t>the deadly snake</t>
+  </si>
+  <si>
+    <t>Äpfel nachwachsen</t>
+  </si>
+  <si>
+    <t>Scoreliste eintragen</t>
+  </si>
+  <si>
+    <t>Pause funktion</t>
+  </si>
+  <si>
+    <t>Hintergrundfarbe ändern</t>
+  </si>
+  <si>
+    <t>Schlange wächst bei Äpfel einsammeln</t>
+  </si>
+  <si>
+    <t>Verschiedene Schlangenfarben</t>
+  </si>
+  <si>
+    <t>M = Meilensteingespräch</t>
   </si>
 </sst>
 </file>
@@ -255,7 +267,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
@@ -351,6 +363,30 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF92D050"/>
+      <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1093,7 +1129,7 @@
     </xf>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1394,6 +1430,19 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="8" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1424,6 +1473,14 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1531,16 +1588,16 @@
                   <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2112,8 +2169,8 @@
   </sheetPr>
   <dimension ref="A1:BJ43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AK18" sqref="AK18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AQ37" sqref="AQ37:AQ38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2129,7 +2186,7 @@
   <sheetData>
     <row r="1" spans="1:62" ht="24.75" x14ac:dyDescent="0.45">
       <c r="A1" s="24" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -2251,7 +2308,9 @@
       <c r="U3" s="6"/>
       <c r="V3" s="6"/>
       <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
+      <c r="X3" s="93" t="s">
+        <v>60</v>
+      </c>
       <c r="Y3" s="6"/>
       <c r="Z3" s="6"/>
       <c r="AA3" s="6"/>
@@ -2432,88 +2491,88 @@
     <row r="7" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="9"/>
       <c r="B7" s="27"/>
-      <c r="C7" s="90" t="s">
+      <c r="C7" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="90"/>
+      <c r="D7" s="94"/>
       <c r="E7" s="28" t="s">
         <v>20</v>
       </c>
       <c r="F7" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="91" t="s">
+      <c r="G7" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="91"/>
-      <c r="I7" s="91"/>
-      <c r="J7" s="91"/>
-      <c r="K7" s="91"/>
-      <c r="L7" s="91"/>
-      <c r="M7" s="92"/>
-      <c r="N7" s="91" t="s">
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="95"/>
+      <c r="L7" s="95"/>
+      <c r="M7" s="96"/>
+      <c r="N7" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="O7" s="91"/>
-      <c r="P7" s="91"/>
-      <c r="Q7" s="91"/>
-      <c r="R7" s="91"/>
-      <c r="S7" s="91"/>
-      <c r="T7" s="92"/>
-      <c r="U7" s="91" t="s">
+      <c r="O7" s="95"/>
+      <c r="P7" s="95"/>
+      <c r="Q7" s="95"/>
+      <c r="R7" s="95"/>
+      <c r="S7" s="95"/>
+      <c r="T7" s="96"/>
+      <c r="U7" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="V7" s="91"/>
-      <c r="W7" s="91"/>
-      <c r="X7" s="91"/>
-      <c r="Y7" s="91"/>
-      <c r="Z7" s="91"/>
-      <c r="AA7" s="92"/>
-      <c r="AB7" s="93" t="s">
+      <c r="V7" s="95"/>
+      <c r="W7" s="95"/>
+      <c r="X7" s="95"/>
+      <c r="Y7" s="95"/>
+      <c r="Z7" s="95"/>
+      <c r="AA7" s="96"/>
+      <c r="AB7" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="AC7" s="91"/>
-      <c r="AD7" s="91"/>
-      <c r="AE7" s="91"/>
-      <c r="AF7" s="91"/>
-      <c r="AG7" s="91"/>
-      <c r="AH7" s="92"/>
-      <c r="AI7" s="91" t="s">
+      <c r="AC7" s="95"/>
+      <c r="AD7" s="95"/>
+      <c r="AE7" s="95"/>
+      <c r="AF7" s="95"/>
+      <c r="AG7" s="95"/>
+      <c r="AH7" s="96"/>
+      <c r="AI7" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="AJ7" s="91"/>
-      <c r="AK7" s="91"/>
-      <c r="AL7" s="91"/>
-      <c r="AM7" s="91"/>
-      <c r="AN7" s="91"/>
-      <c r="AO7" s="92"/>
-      <c r="AP7" s="93" t="s">
+      <c r="AJ7" s="95"/>
+      <c r="AK7" s="95"/>
+      <c r="AL7" s="95"/>
+      <c r="AM7" s="95"/>
+      <c r="AN7" s="95"/>
+      <c r="AO7" s="96"/>
+      <c r="AP7" s="97" t="s">
         <v>40</v>
       </c>
-      <c r="AQ7" s="91"/>
-      <c r="AR7" s="91"/>
-      <c r="AS7" s="91"/>
-      <c r="AT7" s="91"/>
-      <c r="AU7" s="91"/>
-      <c r="AV7" s="92"/>
-      <c r="AW7" s="91" t="s">
+      <c r="AQ7" s="95"/>
+      <c r="AR7" s="95"/>
+      <c r="AS7" s="95"/>
+      <c r="AT7" s="95"/>
+      <c r="AU7" s="95"/>
+      <c r="AV7" s="96"/>
+      <c r="AW7" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="AX7" s="91"/>
-      <c r="AY7" s="91"/>
-      <c r="AZ7" s="91"/>
-      <c r="BA7" s="91"/>
-      <c r="BB7" s="91"/>
-      <c r="BC7" s="92"/>
-      <c r="BD7" s="93" t="s">
+      <c r="AX7" s="95"/>
+      <c r="AY7" s="95"/>
+      <c r="AZ7" s="95"/>
+      <c r="BA7" s="95"/>
+      <c r="BB7" s="95"/>
+      <c r="BC7" s="96"/>
+      <c r="BD7" s="97" t="s">
         <v>42</v>
       </c>
-      <c r="BE7" s="91"/>
-      <c r="BF7" s="91"/>
-      <c r="BG7" s="91"/>
-      <c r="BH7" s="91"/>
-      <c r="BI7" s="91"/>
-      <c r="BJ7" s="94"/>
+      <c r="BE7" s="95"/>
+      <c r="BF7" s="95"/>
+      <c r="BG7" s="95"/>
+      <c r="BH7" s="95"/>
+      <c r="BI7" s="95"/>
+      <c r="BJ7" s="98"/>
     </row>
     <row r="8" spans="1:62" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="10" t="s">
@@ -2815,16 +2874,16 @@
       <c r="AA10" s="58"/>
       <c r="AB10" s="53"/>
       <c r="AC10" s="54"/>
-      <c r="AD10" s="55"/>
-      <c r="AE10" s="55"/>
-      <c r="AF10" s="56"/>
+      <c r="AD10" s="53"/>
+      <c r="AE10" s="54"/>
+      <c r="AF10" s="53"/>
       <c r="AG10" s="57"/>
       <c r="AH10" s="58"/>
       <c r="AI10" s="53"/>
       <c r="AJ10" s="54"/>
-      <c r="AK10" s="55"/>
-      <c r="AL10" s="55"/>
-      <c r="AM10" s="56"/>
+      <c r="AK10" s="59"/>
+      <c r="AL10" s="59"/>
+      <c r="AM10" s="59"/>
       <c r="AN10" s="57"/>
       <c r="AO10" s="58"/>
       <c r="AP10" s="53"/>
@@ -2894,16 +2953,16 @@
       <c r="AA11" s="58"/>
       <c r="AB11" s="59"/>
       <c r="AC11" s="60"/>
-      <c r="AD11" s="61"/>
-      <c r="AE11" s="61"/>
-      <c r="AF11" s="56"/>
+      <c r="AD11" s="59"/>
+      <c r="AE11" s="60"/>
+      <c r="AF11" s="59"/>
       <c r="AG11" s="57"/>
       <c r="AH11" s="58"/>
       <c r="AI11" s="59"/>
       <c r="AJ11" s="60"/>
-      <c r="AK11" s="61"/>
-      <c r="AL11" s="61"/>
-      <c r="AM11" s="56"/>
+      <c r="AK11" s="59"/>
+      <c r="AL11" s="59"/>
+      <c r="AM11" s="59"/>
       <c r="AN11" s="57"/>
       <c r="AO11" s="58"/>
       <c r="AP11" s="59"/>
@@ -2966,16 +3025,16 @@
       <c r="AA12" s="58"/>
       <c r="AB12" s="59"/>
       <c r="AC12" s="60"/>
-      <c r="AD12" s="61"/>
-      <c r="AE12" s="61"/>
-      <c r="AF12" s="63"/>
+      <c r="AD12" s="59"/>
+      <c r="AE12" s="60"/>
+      <c r="AF12" s="59"/>
       <c r="AG12" s="57"/>
       <c r="AH12" s="58"/>
       <c r="AI12" s="59"/>
       <c r="AJ12" s="60"/>
-      <c r="AK12" s="61"/>
-      <c r="AL12" s="61"/>
-      <c r="AM12" s="63"/>
+      <c r="AK12" s="59"/>
+      <c r="AL12" s="59"/>
+      <c r="AM12" s="59"/>
       <c r="AN12" s="57"/>
       <c r="AO12" s="58"/>
       <c r="AP12" s="59"/>
@@ -3040,16 +3099,16 @@
       <c r="AA13" s="67"/>
       <c r="AB13" s="59"/>
       <c r="AC13" s="60"/>
-      <c r="AD13" s="55"/>
-      <c r="AE13" s="55"/>
-      <c r="AF13" s="55"/>
+      <c r="AD13" s="59"/>
+      <c r="AE13" s="60"/>
+      <c r="AF13" s="59"/>
       <c r="AG13" s="66"/>
       <c r="AH13" s="67"/>
       <c r="AI13" s="59"/>
       <c r="AJ13" s="60"/>
-      <c r="AK13" s="55"/>
-      <c r="AL13" s="55"/>
-      <c r="AM13" s="55"/>
+      <c r="AK13" s="59"/>
+      <c r="AL13" s="59"/>
+      <c r="AM13" s="59"/>
       <c r="AN13" s="66"/>
       <c r="AO13" s="67"/>
       <c r="AP13" s="59"/>
@@ -3188,17 +3247,17 @@
       <c r="Z15" s="57"/>
       <c r="AA15" s="58"/>
       <c r="AB15" s="53"/>
-      <c r="AC15" s="54"/>
-      <c r="AD15" s="55"/>
-      <c r="AE15" s="55"/>
-      <c r="AF15" s="56"/>
+      <c r="AC15" s="53"/>
+      <c r="AD15" s="54"/>
+      <c r="AE15" s="53"/>
+      <c r="AF15" s="53"/>
       <c r="AG15" s="57"/>
       <c r="AH15" s="58"/>
       <c r="AI15" s="53"/>
       <c r="AJ15" s="54"/>
-      <c r="AK15" s="55"/>
-      <c r="AL15" s="55"/>
-      <c r="AM15" s="56"/>
+      <c r="AK15" s="53"/>
+      <c r="AL15" s="53"/>
+      <c r="AM15" s="53"/>
       <c r="AN15" s="57"/>
       <c r="AO15" s="58"/>
       <c r="AP15" s="53"/>
@@ -3248,7 +3307,7 @@
       <c r="M16" s="58"/>
       <c r="N16" s="59"/>
       <c r="O16" s="60"/>
-      <c r="P16" s="68"/>
+      <c r="P16" s="55"/>
       <c r="Q16" s="55"/>
       <c r="R16" s="56"/>
       <c r="S16" s="57"/>
@@ -3261,17 +3320,17 @@
       <c r="Z16" s="57"/>
       <c r="AA16" s="58"/>
       <c r="AB16" s="59"/>
-      <c r="AC16" s="60"/>
-      <c r="AD16" s="55"/>
-      <c r="AE16" s="55"/>
-      <c r="AF16" s="56"/>
+      <c r="AC16" s="59"/>
+      <c r="AD16" s="60"/>
+      <c r="AE16" s="59"/>
+      <c r="AF16" s="59"/>
       <c r="AG16" s="57"/>
       <c r="AH16" s="58"/>
       <c r="AI16" s="59"/>
       <c r="AJ16" s="60"/>
-      <c r="AK16" s="55"/>
-      <c r="AL16" s="55"/>
-      <c r="AM16" s="56"/>
+      <c r="AK16" s="53"/>
+      <c r="AL16" s="53"/>
+      <c r="AM16" s="53"/>
       <c r="AN16" s="57"/>
       <c r="AO16" s="58"/>
       <c r="AP16" s="59"/>
@@ -3330,17 +3389,17 @@
       <c r="Z17" s="57"/>
       <c r="AA17" s="58"/>
       <c r="AB17" s="69"/>
-      <c r="AC17" s="70"/>
-      <c r="AD17" s="55"/>
-      <c r="AE17" s="55"/>
-      <c r="AF17" s="56"/>
+      <c r="AC17" s="59"/>
+      <c r="AD17" s="60"/>
+      <c r="AE17" s="59"/>
+      <c r="AF17" s="59"/>
       <c r="AG17" s="57"/>
       <c r="AH17" s="58"/>
       <c r="AI17" s="69"/>
       <c r="AJ17" s="70"/>
-      <c r="AK17" s="55"/>
-      <c r="AL17" s="55"/>
-      <c r="AM17" s="56"/>
+      <c r="AK17" s="53"/>
+      <c r="AL17" s="53"/>
+      <c r="AM17" s="53"/>
       <c r="AN17" s="57"/>
       <c r="AO17" s="58"/>
       <c r="AP17" s="69"/>
@@ -3374,7 +3433,7 @@
       </c>
       <c r="C18" s="41">
         <f>SUM(C19:C30)</f>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D18" s="42">
         <f>SUM(D19:D30)</f>
@@ -3446,7 +3505,9 @@
       <c r="B19" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="49"/>
+      <c r="C19" s="49">
+        <v>2</v>
+      </c>
       <c r="D19" s="83">
         <f>SUM(G19:BJ19)</f>
         <v>0</v>
@@ -3475,17 +3536,17 @@
       <c r="Z19" s="57"/>
       <c r="AA19" s="58"/>
       <c r="AB19" s="53"/>
-      <c r="AC19" s="54"/>
-      <c r="AD19" s="55"/>
-      <c r="AE19" s="55"/>
-      <c r="AF19" s="56"/>
+      <c r="AC19" s="53"/>
+      <c r="AD19" s="53"/>
+      <c r="AE19" s="54"/>
+      <c r="AF19" s="53"/>
       <c r="AG19" s="57"/>
       <c r="AH19" s="58"/>
       <c r="AI19" s="53"/>
       <c r="AJ19" s="54"/>
-      <c r="AK19" s="55"/>
-      <c r="AL19" s="55"/>
-      <c r="AM19" s="56"/>
+      <c r="AK19" s="54"/>
+      <c r="AL19" s="54"/>
+      <c r="AM19" s="54"/>
       <c r="AN19" s="57"/>
       <c r="AO19" s="58"/>
       <c r="AP19" s="53"/>
@@ -3517,7 +3578,9 @@
       <c r="B20" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="49"/>
+      <c r="C20" s="49">
+        <v>1</v>
+      </c>
       <c r="D20" s="83">
         <f t="shared" ref="D20:D30" si="0">SUM(G20:BJ20)</f>
         <v>0</v>
@@ -3526,8 +3589,7 @@
       <c r="F20" s="51"/>
       <c r="G20" s="59"/>
       <c r="H20" s="60"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="55"/>
+      <c r="J20" s="68"/>
       <c r="K20" s="56"/>
       <c r="L20" s="57"/>
       <c r="M20" s="58"/>
@@ -3546,17 +3608,17 @@
       <c r="Z20" s="57"/>
       <c r="AA20" s="58"/>
       <c r="AB20" s="59"/>
-      <c r="AC20" s="60"/>
-      <c r="AD20" s="55"/>
-      <c r="AE20" s="55"/>
-      <c r="AF20" s="56"/>
+      <c r="AC20" s="59"/>
+      <c r="AD20" s="59"/>
+      <c r="AE20" s="60"/>
+      <c r="AF20" s="59"/>
       <c r="AG20" s="57"/>
       <c r="AH20" s="58"/>
       <c r="AI20" s="59"/>
       <c r="AJ20" s="60"/>
-      <c r="AK20" s="55"/>
-      <c r="AL20" s="55"/>
-      <c r="AM20" s="56"/>
+      <c r="AK20" s="54"/>
+      <c r="AL20" s="54"/>
+      <c r="AM20" s="54"/>
       <c r="AN20" s="57"/>
       <c r="AO20" s="58"/>
       <c r="AP20" s="59"/>
@@ -3588,7 +3650,9 @@
       <c r="B21" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="49"/>
+      <c r="C21" s="49">
+        <v>2</v>
+      </c>
       <c r="D21" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3599,7 +3663,7 @@
       <c r="H21" s="60"/>
       <c r="I21" s="55"/>
       <c r="J21" s="55"/>
-      <c r="K21" s="56"/>
+      <c r="K21" s="63"/>
       <c r="L21" s="57"/>
       <c r="M21" s="58"/>
       <c r="N21" s="59"/>
@@ -3617,17 +3681,17 @@
       <c r="Z21" s="57"/>
       <c r="AA21" s="58"/>
       <c r="AB21" s="59"/>
-      <c r="AC21" s="60"/>
-      <c r="AD21" s="55"/>
-      <c r="AE21" s="55"/>
-      <c r="AF21" s="56"/>
+      <c r="AC21" s="69"/>
+      <c r="AD21" s="59"/>
+      <c r="AE21" s="60"/>
+      <c r="AF21" s="59"/>
       <c r="AG21" s="57"/>
       <c r="AH21" s="58"/>
       <c r="AI21" s="59"/>
       <c r="AJ21" s="60"/>
-      <c r="AK21" s="55"/>
-      <c r="AL21" s="55"/>
-      <c r="AM21" s="56"/>
+      <c r="AK21" s="54"/>
+      <c r="AL21" s="54"/>
+      <c r="AM21" s="54"/>
       <c r="AN21" s="57"/>
       <c r="AO21" s="58"/>
       <c r="AP21" s="59"/>
@@ -3659,7 +3723,9 @@
       <c r="B22" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="49"/>
+      <c r="C22" s="91">
+        <v>3</v>
+      </c>
       <c r="D22" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3675,8 +3741,8 @@
       <c r="M22" s="58"/>
       <c r="N22" s="59"/>
       <c r="O22" s="60"/>
-      <c r="P22" s="55"/>
-      <c r="Q22" s="55"/>
+      <c r="P22" s="68"/>
+      <c r="Q22" s="68"/>
       <c r="R22" s="56"/>
       <c r="S22" s="57"/>
       <c r="T22" s="58"/>
@@ -3688,17 +3754,17 @@
       <c r="Z22" s="57"/>
       <c r="AA22" s="58"/>
       <c r="AB22" s="59"/>
-      <c r="AC22" s="60"/>
-      <c r="AD22" s="55"/>
-      <c r="AE22" s="55"/>
-      <c r="AF22" s="56"/>
+      <c r="AC22" s="53"/>
+      <c r="AD22" s="53"/>
+      <c r="AE22" s="54"/>
+      <c r="AF22" s="53"/>
       <c r="AG22" s="57"/>
       <c r="AH22" s="58"/>
       <c r="AI22" s="59"/>
       <c r="AJ22" s="60"/>
-      <c r="AK22" s="55"/>
-      <c r="AL22" s="55"/>
-      <c r="AM22" s="56"/>
+      <c r="AK22" s="54"/>
+      <c r="AL22" s="54"/>
+      <c r="AM22" s="54"/>
       <c r="AN22" s="57"/>
       <c r="AO22" s="58"/>
       <c r="AP22" s="59"/>
@@ -3730,7 +3796,9 @@
       <c r="B23" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="49"/>
+      <c r="C23" s="49">
+        <v>2</v>
+      </c>
       <c r="D23" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3748,28 +3816,27 @@
       <c r="O23" s="60"/>
       <c r="P23" s="61"/>
       <c r="Q23" s="61"/>
-      <c r="R23" s="56"/>
+      <c r="R23" s="90"/>
       <c r="S23" s="57"/>
       <c r="T23" s="58"/>
       <c r="U23" s="59"/>
       <c r="V23" s="60"/>
-      <c r="W23" s="61"/>
-      <c r="X23" s="61"/>
+      <c r="W23" s="56"/>
       <c r="Y23" s="56"/>
       <c r="Z23" s="57"/>
       <c r="AA23" s="58"/>
       <c r="AB23" s="59"/>
-      <c r="AC23" s="60"/>
-      <c r="AD23" s="61"/>
-      <c r="AE23" s="61"/>
-      <c r="AF23" s="56"/>
+      <c r="AC23" s="59"/>
+      <c r="AD23" s="59"/>
+      <c r="AE23" s="60"/>
+      <c r="AF23" s="59"/>
       <c r="AG23" s="57"/>
       <c r="AH23" s="58"/>
       <c r="AI23" s="59"/>
       <c r="AJ23" s="60"/>
-      <c r="AK23" s="61"/>
-      <c r="AL23" s="61"/>
-      <c r="AM23" s="56"/>
+      <c r="AK23" s="54"/>
+      <c r="AL23" s="54"/>
+      <c r="AM23" s="54"/>
       <c r="AN23" s="57"/>
       <c r="AO23" s="58"/>
       <c r="AP23" s="59"/>
@@ -3799,9 +3866,11 @@
         <v>306</v>
       </c>
       <c r="B24" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="49"/>
+        <v>58</v>
+      </c>
+      <c r="C24" s="49">
+        <v>3</v>
+      </c>
       <c r="D24" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3819,28 +3888,27 @@
       <c r="O24" s="60"/>
       <c r="P24" s="55"/>
       <c r="Q24" s="55"/>
-      <c r="R24" s="56"/>
+      <c r="R24" s="90"/>
       <c r="S24" s="57"/>
       <c r="T24" s="58"/>
       <c r="U24" s="59"/>
       <c r="V24" s="60"/>
-      <c r="W24" s="55"/>
       <c r="X24" s="55"/>
-      <c r="Y24" s="56"/>
+      <c r="Y24" s="61"/>
       <c r="Z24" s="57"/>
       <c r="AA24" s="58"/>
       <c r="AB24" s="59"/>
-      <c r="AC24" s="60"/>
-      <c r="AD24" s="55"/>
-      <c r="AE24" s="55"/>
-      <c r="AF24" s="56"/>
+      <c r="AC24" s="69"/>
+      <c r="AD24" s="59"/>
+      <c r="AE24" s="60"/>
+      <c r="AF24" s="59"/>
       <c r="AG24" s="57"/>
       <c r="AH24" s="58"/>
       <c r="AI24" s="59"/>
       <c r="AJ24" s="60"/>
-      <c r="AK24" s="55"/>
-      <c r="AL24" s="55"/>
-      <c r="AM24" s="56"/>
+      <c r="AK24" s="54"/>
+      <c r="AL24" s="54"/>
+      <c r="AM24" s="54"/>
       <c r="AN24" s="57"/>
       <c r="AO24" s="58"/>
       <c r="AP24" s="59"/>
@@ -3870,9 +3938,11 @@
         <v>307</v>
       </c>
       <c r="B25" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="49"/>
+        <v>54</v>
+      </c>
+      <c r="C25" s="49">
+        <v>2</v>
+      </c>
       <c r="D25" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3890,28 +3960,24 @@
       <c r="O25" s="60"/>
       <c r="P25" s="55"/>
       <c r="Q25" s="55"/>
-      <c r="R25" s="56"/>
+      <c r="R25" s="103"/>
       <c r="S25" s="57"/>
       <c r="T25" s="58"/>
       <c r="U25" s="59"/>
       <c r="V25" s="60"/>
-      <c r="W25" s="55"/>
-      <c r="X25" s="55"/>
-      <c r="Y25" s="56"/>
       <c r="Z25" s="57"/>
-      <c r="AA25" s="58"/>
       <c r="AB25" s="59"/>
-      <c r="AC25" s="60"/>
-      <c r="AD25" s="55"/>
-      <c r="AE25" s="55"/>
-      <c r="AF25" s="56"/>
+      <c r="AC25" s="53"/>
+      <c r="AD25" s="53"/>
+      <c r="AE25" s="54"/>
+      <c r="AF25" s="53"/>
       <c r="AG25" s="57"/>
       <c r="AH25" s="58"/>
       <c r="AI25" s="59"/>
       <c r="AJ25" s="60"/>
-      <c r="AK25" s="55"/>
-      <c r="AL25" s="55"/>
-      <c r="AM25" s="56"/>
+      <c r="AK25" s="54"/>
+      <c r="AL25" s="54"/>
+      <c r="AM25" s="54"/>
       <c r="AN25" s="57"/>
       <c r="AO25" s="58"/>
       <c r="AP25" s="59"/>
@@ -3943,7 +4009,9 @@
       <c r="B26" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="49"/>
+      <c r="C26" s="49">
+        <v>4</v>
+      </c>
       <c r="D26" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3966,23 +4034,24 @@
       <c r="T26" s="58"/>
       <c r="U26" s="59"/>
       <c r="V26" s="60"/>
-      <c r="W26" s="55"/>
-      <c r="X26" s="55"/>
-      <c r="Y26" s="56"/>
+      <c r="W26" s="104"/>
+      <c r="Y26" s="92" t="s">
+        <v>16</v>
+      </c>
       <c r="Z26" s="57"/>
       <c r="AA26" s="58"/>
       <c r="AB26" s="59"/>
-      <c r="AC26" s="60"/>
-      <c r="AD26" s="55"/>
-      <c r="AE26" s="55"/>
-      <c r="AF26" s="56"/>
+      <c r="AC26" s="59"/>
+      <c r="AD26" s="59"/>
+      <c r="AE26" s="60"/>
+      <c r="AF26" s="59"/>
       <c r="AG26" s="57"/>
       <c r="AH26" s="58"/>
       <c r="AI26" s="59"/>
       <c r="AJ26" s="60"/>
-      <c r="AK26" s="55"/>
-      <c r="AL26" s="55"/>
-      <c r="AM26" s="56"/>
+      <c r="AK26" s="54"/>
+      <c r="AL26" s="54"/>
+      <c r="AM26" s="54"/>
       <c r="AN26" s="57"/>
       <c r="AO26" s="58"/>
       <c r="AP26" s="59"/>
@@ -4011,8 +4080,12 @@
       <c r="A27" s="12">
         <v>309</v>
       </c>
-      <c r="B27" s="46"/>
-      <c r="C27" s="49"/>
+      <c r="B27" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="49">
+        <v>4</v>
+      </c>
       <c r="D27" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4035,23 +4108,22 @@
       <c r="T27" s="58"/>
       <c r="U27" s="59"/>
       <c r="V27" s="60"/>
-      <c r="W27" s="55"/>
-      <c r="X27" s="55"/>
-      <c r="Y27" s="56"/>
+      <c r="W27" s="68"/>
+      <c r="X27" s="90"/>
       <c r="Z27" s="57"/>
       <c r="AA27" s="58"/>
       <c r="AB27" s="59"/>
-      <c r="AC27" s="60"/>
-      <c r="AD27" s="55"/>
-      <c r="AE27" s="55"/>
-      <c r="AF27" s="56"/>
+      <c r="AC27" s="69"/>
+      <c r="AD27" s="59"/>
+      <c r="AE27" s="60"/>
+      <c r="AF27" s="59"/>
       <c r="AG27" s="57"/>
       <c r="AH27" s="58"/>
       <c r="AI27" s="59"/>
       <c r="AJ27" s="60"/>
-      <c r="AK27" s="55"/>
-      <c r="AL27" s="55"/>
-      <c r="AM27" s="56"/>
+      <c r="AK27" s="54"/>
+      <c r="AL27" s="54"/>
+      <c r="AM27" s="54"/>
       <c r="AN27" s="57"/>
       <c r="AO27" s="58"/>
       <c r="AP27" s="59"/>
@@ -4080,8 +4152,12 @@
       <c r="A28" s="12">
         <v>310</v>
       </c>
-      <c r="B28" s="46"/>
-      <c r="C28" s="49"/>
+      <c r="B28" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="91">
+        <v>2</v>
+      </c>
       <c r="D28" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4105,22 +4181,22 @@
       <c r="U28" s="59"/>
       <c r="V28" s="60"/>
       <c r="W28" s="55"/>
-      <c r="X28" s="55"/>
+      <c r="X28" s="68"/>
       <c r="Y28" s="56"/>
       <c r="Z28" s="57"/>
       <c r="AA28" s="58"/>
       <c r="AB28" s="59"/>
-      <c r="AC28" s="60"/>
-      <c r="AD28" s="55"/>
-      <c r="AE28" s="55"/>
-      <c r="AF28" s="56"/>
+      <c r="AC28" s="53"/>
+      <c r="AD28" s="53"/>
+      <c r="AE28" s="54"/>
+      <c r="AF28" s="53"/>
       <c r="AG28" s="57"/>
       <c r="AH28" s="58"/>
       <c r="AI28" s="59"/>
       <c r="AJ28" s="60"/>
-      <c r="AK28" s="55"/>
-      <c r="AL28" s="55"/>
-      <c r="AM28" s="56"/>
+      <c r="AK28" s="54"/>
+      <c r="AL28" s="54"/>
+      <c r="AM28" s="54"/>
       <c r="AN28" s="57"/>
       <c r="AO28" s="58"/>
       <c r="AP28" s="59"/>
@@ -4149,8 +4225,12 @@
       <c r="A29" s="12">
         <v>311</v>
       </c>
-      <c r="B29" s="46"/>
-      <c r="C29" s="49"/>
+      <c r="B29" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="49">
+        <v>1</v>
+      </c>
       <c r="D29" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4175,21 +4255,21 @@
       <c r="V29" s="72"/>
       <c r="W29" s="55"/>
       <c r="X29" s="55"/>
-      <c r="Y29" s="56"/>
+      <c r="Y29" s="63"/>
       <c r="Z29" s="57"/>
       <c r="AA29" s="58"/>
       <c r="AB29" s="71"/>
-      <c r="AC29" s="72"/>
-      <c r="AD29" s="55"/>
-      <c r="AE29" s="55"/>
-      <c r="AF29" s="56"/>
+      <c r="AC29" s="59"/>
+      <c r="AD29" s="59"/>
+      <c r="AE29" s="60"/>
+      <c r="AF29" s="59"/>
       <c r="AG29" s="57"/>
       <c r="AH29" s="58"/>
       <c r="AI29" s="71"/>
       <c r="AJ29" s="72"/>
-      <c r="AK29" s="55"/>
-      <c r="AL29" s="55"/>
-      <c r="AM29" s="56"/>
+      <c r="AK29" s="54"/>
+      <c r="AL29" s="54"/>
+      <c r="AM29" s="54"/>
       <c r="AN29" s="57"/>
       <c r="AO29" s="58"/>
       <c r="AP29" s="71"/>
@@ -4248,17 +4328,17 @@
       <c r="Z30" s="57"/>
       <c r="AA30" s="58"/>
       <c r="AB30" s="69"/>
-      <c r="AC30" s="70"/>
-      <c r="AD30" s="55"/>
-      <c r="AE30" s="55"/>
-      <c r="AF30" s="56"/>
+      <c r="AC30" s="69"/>
+      <c r="AD30" s="59"/>
+      <c r="AE30" s="60"/>
+      <c r="AF30" s="59"/>
       <c r="AG30" s="57"/>
       <c r="AH30" s="58"/>
       <c r="AI30" s="69"/>
       <c r="AJ30" s="70"/>
-      <c r="AK30" s="55"/>
-      <c r="AL30" s="55"/>
-      <c r="AM30" s="56"/>
+      <c r="AK30" s="54"/>
+      <c r="AL30" s="54"/>
+      <c r="AM30" s="54"/>
       <c r="AN30" s="57"/>
       <c r="AO30" s="58"/>
       <c r="AP30" s="69"/>
@@ -4291,8 +4371,7 @@
         <v>7</v>
       </c>
       <c r="C31" s="41">
-        <f>SUM(C32:C35)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" s="42">
         <f>SUM(D32:D35)</f>
@@ -4364,7 +4443,9 @@
       <c r="B32" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="49"/>
+      <c r="C32" s="49">
+        <v>1</v>
+      </c>
       <c r="D32" s="83">
         <f>SUM(G32:BJ32)</f>
         <v>0</v>
@@ -4394,21 +4475,21 @@
       <c r="AA32" s="58"/>
       <c r="AB32" s="53"/>
       <c r="AC32" s="54"/>
-      <c r="AD32" s="55"/>
-      <c r="AE32" s="55"/>
-      <c r="AF32" s="56"/>
+      <c r="AD32" s="53"/>
+      <c r="AE32" s="53"/>
+      <c r="AF32" s="54"/>
       <c r="AG32" s="57"/>
       <c r="AH32" s="58"/>
       <c r="AI32" s="53"/>
       <c r="AJ32" s="54"/>
-      <c r="AK32" s="55"/>
-      <c r="AL32" s="55"/>
-      <c r="AM32" s="56"/>
+      <c r="AK32" s="60"/>
+      <c r="AL32" s="60"/>
+      <c r="AM32" s="60"/>
       <c r="AN32" s="57"/>
       <c r="AO32" s="58"/>
       <c r="AP32" s="53"/>
       <c r="AQ32" s="54"/>
-      <c r="AR32" s="55"/>
+      <c r="AR32" s="68"/>
       <c r="AS32" s="55"/>
       <c r="AT32" s="56"/>
       <c r="AU32" s="57"/>
@@ -4435,7 +4516,9 @@
       <c r="B33" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="49"/>
+      <c r="C33" s="49">
+        <v>2</v>
+      </c>
       <c r="D33" s="83">
         <f t="shared" ref="D33:D35" si="1">SUM(G33:BJ33)</f>
         <v>0</v>
@@ -4465,21 +4548,21 @@
       <c r="AA33" s="58"/>
       <c r="AB33" s="59"/>
       <c r="AC33" s="60"/>
-      <c r="AD33" s="55"/>
-      <c r="AE33" s="55"/>
-      <c r="AF33" s="56"/>
+      <c r="AD33" s="59"/>
+      <c r="AE33" s="59"/>
+      <c r="AF33" s="60"/>
       <c r="AG33" s="57"/>
       <c r="AH33" s="58"/>
       <c r="AI33" s="59"/>
       <c r="AJ33" s="60"/>
-      <c r="AK33" s="55"/>
-      <c r="AL33" s="55"/>
-      <c r="AM33" s="56"/>
+      <c r="AK33" s="60"/>
+      <c r="AL33" s="60"/>
+      <c r="AM33" s="60"/>
       <c r="AN33" s="57"/>
       <c r="AO33" s="58"/>
       <c r="AP33" s="59"/>
       <c r="AQ33" s="60"/>
-      <c r="AR33" s="55"/>
+      <c r="AR33" s="68"/>
       <c r="AS33" s="55"/>
       <c r="AT33" s="56"/>
       <c r="AU33" s="57"/>
@@ -4506,7 +4589,9 @@
       <c r="B34" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="49"/>
+      <c r="C34" s="49">
+        <v>1</v>
+      </c>
       <c r="D34" s="83">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4536,21 +4621,21 @@
       <c r="AA34" s="58"/>
       <c r="AB34" s="59"/>
       <c r="AC34" s="60"/>
-      <c r="AD34" s="55"/>
-      <c r="AE34" s="55"/>
-      <c r="AF34" s="56"/>
+      <c r="AD34" s="69"/>
+      <c r="AE34" s="59"/>
+      <c r="AF34" s="60"/>
       <c r="AG34" s="57"/>
       <c r="AH34" s="58"/>
       <c r="AI34" s="59"/>
       <c r="AJ34" s="60"/>
-      <c r="AK34" s="55"/>
-      <c r="AL34" s="55"/>
-      <c r="AM34" s="56"/>
+      <c r="AK34" s="60"/>
+      <c r="AL34" s="60"/>
+      <c r="AM34" s="60"/>
       <c r="AN34" s="57"/>
       <c r="AO34" s="58"/>
       <c r="AP34" s="59"/>
       <c r="AQ34" s="60"/>
-      <c r="AR34" s="55"/>
+      <c r="AR34" s="68"/>
       <c r="AS34" s="55"/>
       <c r="AT34" s="56"/>
       <c r="AU34" s="57"/>
@@ -4605,21 +4690,21 @@
       <c r="AA35" s="58"/>
       <c r="AB35" s="69"/>
       <c r="AC35" s="70"/>
-      <c r="AD35" s="55"/>
-      <c r="AE35" s="55"/>
-      <c r="AF35" s="56"/>
+      <c r="AD35" s="53"/>
+      <c r="AE35" s="53"/>
+      <c r="AF35" s="54"/>
       <c r="AG35" s="57"/>
       <c r="AH35" s="58"/>
       <c r="AI35" s="69"/>
       <c r="AJ35" s="70"/>
-      <c r="AK35" s="55"/>
-      <c r="AL35" s="55"/>
-      <c r="AM35" s="56"/>
+      <c r="AK35" s="60"/>
+      <c r="AL35" s="60"/>
+      <c r="AM35" s="60"/>
       <c r="AN35" s="57"/>
       <c r="AO35" s="58"/>
       <c r="AP35" s="69"/>
       <c r="AQ35" s="70"/>
-      <c r="AR35" s="55"/>
+      <c r="AR35" s="68"/>
       <c r="AS35" s="55"/>
       <c r="AT35" s="56"/>
       <c r="AU35" s="57"/>
@@ -4648,7 +4733,7 @@
       </c>
       <c r="C36" s="41">
         <f>SUM(C37:C38)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" s="42">
         <f>SUM(D37:D38)</f>
@@ -4720,7 +4805,9 @@
       <c r="B37" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="49"/>
+      <c r="C37" s="49">
+        <v>1</v>
+      </c>
       <c r="D37" s="83">
         <f>SUM(G37:BJ37)</f>
         <v>0</v>
@@ -4750,16 +4837,16 @@
       <c r="AA37" s="58"/>
       <c r="AB37" s="53"/>
       <c r="AC37" s="54"/>
-      <c r="AD37" s="55"/>
-      <c r="AE37" s="55"/>
-      <c r="AF37" s="56"/>
+      <c r="AD37" s="53"/>
+      <c r="AE37" s="53"/>
+      <c r="AF37" s="54"/>
       <c r="AG37" s="57"/>
       <c r="AH37" s="58"/>
       <c r="AI37" s="53"/>
       <c r="AJ37" s="54"/>
-      <c r="AK37" s="55"/>
-      <c r="AL37" s="55"/>
-      <c r="AM37" s="56"/>
+      <c r="AK37" s="60"/>
+      <c r="AL37" s="60"/>
+      <c r="AM37" s="60"/>
       <c r="AN37" s="57"/>
       <c r="AO37" s="58"/>
       <c r="AP37" s="53"/>
@@ -4819,16 +4906,16 @@
       <c r="AA38" s="58"/>
       <c r="AB38" s="69"/>
       <c r="AC38" s="70"/>
-      <c r="AD38" s="55"/>
-      <c r="AE38" s="55"/>
-      <c r="AF38" s="56"/>
+      <c r="AD38" s="59"/>
+      <c r="AE38" s="59"/>
+      <c r="AF38" s="60"/>
       <c r="AG38" s="57"/>
       <c r="AH38" s="58"/>
       <c r="AI38" s="69"/>
       <c r="AJ38" s="70"/>
-      <c r="AK38" s="55"/>
-      <c r="AL38" s="55"/>
-      <c r="AM38" s="56"/>
+      <c r="AK38" s="60"/>
+      <c r="AL38" s="60"/>
+      <c r="AM38" s="60"/>
       <c r="AN38" s="57"/>
       <c r="AO38" s="58"/>
       <c r="AP38" s="69"/>
@@ -4862,7 +4949,7 @@
       </c>
       <c r="C39" s="41">
         <f>SUM(C40:C42)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="D39" s="42">
         <f>SUM(D40:D42)</f>
@@ -4934,7 +5021,9 @@
       <c r="B40" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="C40" s="49"/>
+      <c r="C40" s="49">
+        <v>1</v>
+      </c>
       <c r="D40" s="83">
         <f>SUM(G40:BJ40)</f>
         <v>0</v>
@@ -4964,21 +5053,21 @@
       <c r="AA40" s="58"/>
       <c r="AB40" s="53"/>
       <c r="AC40" s="54"/>
-      <c r="AD40" s="55"/>
-      <c r="AE40" s="55"/>
-      <c r="AF40" s="56"/>
+      <c r="AD40" s="53"/>
+      <c r="AE40" s="53"/>
+      <c r="AF40" s="54"/>
       <c r="AG40" s="57"/>
       <c r="AH40" s="58"/>
       <c r="AI40" s="53"/>
       <c r="AJ40" s="54"/>
-      <c r="AK40" s="55"/>
-      <c r="AL40" s="55"/>
-      <c r="AM40" s="56"/>
+      <c r="AK40" s="60"/>
+      <c r="AL40" s="60"/>
+      <c r="AM40" s="60"/>
       <c r="AN40" s="57"/>
       <c r="AO40" s="58"/>
       <c r="AP40" s="53"/>
       <c r="AQ40" s="54"/>
-      <c r="AR40" s="55"/>
+      <c r="AR40" s="68"/>
       <c r="AS40" s="55"/>
       <c r="AT40" s="56"/>
       <c r="AU40" s="57"/>
@@ -5005,7 +5094,9 @@
       <c r="B41" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="C41" s="49"/>
+      <c r="C41" s="49">
+        <v>0.5</v>
+      </c>
       <c r="D41" s="83">
         <f t="shared" ref="D41:D42" si="2">SUM(G41:BJ41)</f>
         <v>0</v>
@@ -5035,21 +5126,21 @@
       <c r="AA41" s="58"/>
       <c r="AB41" s="59"/>
       <c r="AC41" s="60"/>
-      <c r="AD41" s="55"/>
-      <c r="AE41" s="55"/>
-      <c r="AF41" s="56"/>
+      <c r="AD41" s="59"/>
+      <c r="AE41" s="59"/>
+      <c r="AF41" s="60"/>
       <c r="AG41" s="57"/>
       <c r="AH41" s="58"/>
       <c r="AI41" s="59"/>
       <c r="AJ41" s="60"/>
-      <c r="AK41" s="55"/>
-      <c r="AL41" s="55"/>
-      <c r="AM41" s="56"/>
+      <c r="AK41" s="60"/>
+      <c r="AL41" s="60"/>
+      <c r="AM41" s="60"/>
       <c r="AN41" s="57"/>
       <c r="AO41" s="58"/>
       <c r="AP41" s="59"/>
       <c r="AQ41" s="60"/>
-      <c r="AR41" s="55"/>
+      <c r="AR41" s="68"/>
       <c r="AS41" s="55"/>
       <c r="AT41" s="56"/>
       <c r="AU41" s="57"/>
@@ -5104,16 +5195,16 @@
       <c r="AA42" s="58"/>
       <c r="AB42" s="69"/>
       <c r="AC42" s="70"/>
-      <c r="AD42" s="55"/>
-      <c r="AE42" s="55"/>
-      <c r="AF42" s="56"/>
+      <c r="AD42" s="53"/>
+      <c r="AE42" s="53"/>
+      <c r="AF42" s="54"/>
       <c r="AG42" s="57"/>
       <c r="AH42" s="58"/>
       <c r="AI42" s="69"/>
       <c r="AJ42" s="70"/>
-      <c r="AK42" s="55"/>
-      <c r="AL42" s="55"/>
-      <c r="AM42" s="56"/>
+      <c r="AK42" s="60"/>
+      <c r="AL42" s="60"/>
+      <c r="AM42" s="60"/>
       <c r="AN42" s="57"/>
       <c r="AO42" s="58"/>
       <c r="AP42" s="69"/>
@@ -5145,7 +5236,7 @@
       </c>
       <c r="C43" s="37">
         <f>C39+C36+C31+C18+C14+C9</f>
-        <v>8.5</v>
+        <v>38</v>
       </c>
       <c r="D43" s="37">
         <f>D39+D36+D31+D18+D14+D9</f>
@@ -5424,10 +5515,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.4" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="1:6" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="98"/>
+      <c r="B2" s="102"/>
       <c r="C2" s="79" t="s">
         <v>14</v>
       </c>
@@ -5436,11 +5527,11 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="95" t="str">
+      <c r="A3" s="99" t="str">
         <f>Zeitplanung!B9</f>
         <v>Administration, Planung</v>
       </c>
-      <c r="B3" s="96"/>
+      <c r="B3" s="100"/>
       <c r="C3" s="80">
         <f>Zeitplanung!C9</f>
         <v>6</v>
@@ -5453,11 +5544,11 @@
       <c r="F3" s="81"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="95" t="str">
+      <c r="A4" s="99" t="str">
         <f>Zeitplanung!B14</f>
         <v>Analyse &amp; Design</v>
       </c>
-      <c r="B4" s="96"/>
+      <c r="B4" s="100"/>
       <c r="C4" s="80">
         <f>Zeitplanung!C14</f>
         <v>2.5</v>
@@ -5470,14 +5561,14 @@
       <c r="F4" s="81"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="95" t="str">
+      <c r="A5" s="99" t="str">
         <f>Zeitplanung!B18</f>
         <v>Implementation</v>
       </c>
-      <c r="B5" s="96"/>
+      <c r="B5" s="100"/>
       <c r="C5" s="80">
         <f>Zeitplanung!C18</f>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D5" s="80">
         <f>Zeitplanung!D18</f>
@@ -5487,14 +5578,14 @@
       <c r="F5" s="81"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="95" t="str">
+      <c r="A6" s="99" t="str">
         <f>Zeitplanung!B31</f>
         <v>Testen</v>
       </c>
-      <c r="B6" s="96"/>
+      <c r="B6" s="100"/>
       <c r="C6" s="80">
         <f>Zeitplanung!C31</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="80">
         <f>Zeitplanung!D31</f>
@@ -5503,14 +5594,14 @@
       <c r="F6" s="81"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="95" t="str">
+      <c r="A7" s="99" t="str">
         <f>Zeitplanung!B36</f>
         <v>Diverses</v>
       </c>
-      <c r="B7" s="96"/>
+      <c r="B7" s="100"/>
       <c r="C7" s="80">
         <f>Zeitplanung!C36</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="80">
         <f>Zeitplanung!D36</f>
@@ -5519,14 +5610,14 @@
       <c r="F7" s="81"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="95" t="str">
+      <c r="A8" s="99" t="str">
         <f>Zeitplanung!B39</f>
         <v>Abschluss</v>
       </c>
-      <c r="B8" s="96"/>
+      <c r="B8" s="100"/>
       <c r="C8" s="80">
         <f>Zeitplanung!C39</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="D8" s="80">
         <f>Zeitplanung!D39</f>

--- a/Zeitplanung.xlsx
+++ b/Zeitplanung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BLJ\Projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F38A26D-58B9-4283-A40A-95990752C070}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A4C96C-6AF2-4FF6-BEEC-C0EC8930BC0B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="4050" windowWidth="29040" windowHeight="15840" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="61">
   <si>
     <t>Nr.</t>
   </si>
@@ -257,7 +257,7 @@
     <t>Verschiedene Schlangenfarben</t>
   </si>
   <si>
-    <t>M = Meilensteingespräch</t>
+    <t>Mauern zufällig generieren</t>
   </si>
 </sst>
 </file>
@@ -1437,12 +1437,17 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1474,13 +1479,8 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1585,10 +1585,10 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
@@ -1597,7 +1597,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1659,10 +1659,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2169,8 +2169,8 @@
   </sheetPr>
   <dimension ref="A1:BJ43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AQ37" sqref="AQ37:AQ38"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AB28" sqref="AB28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2301,29 +2301,11 @@
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="93" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="6"/>
-      <c r="AC3" s="6"/>
-      <c r="AD3" s="6"/>
-      <c r="AE3" s="6"/>
-      <c r="AF3" s="6"/>
       <c r="AG3" s="6"/>
       <c r="AH3" s="6"/>
       <c r="AI3" s="6"/>
       <c r="AJ3" s="6"/>
-      <c r="AK3" s="6"/>
+      <c r="AK3" s="92"/>
       <c r="AL3" s="6"/>
       <c r="AM3" s="6"/>
       <c r="AN3" s="6"/>
@@ -2491,88 +2473,88 @@
     <row r="7" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="9"/>
       <c r="B7" s="27"/>
-      <c r="C7" s="94" t="s">
+      <c r="C7" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="94"/>
+      <c r="D7" s="95"/>
       <c r="E7" s="28" t="s">
         <v>20</v>
       </c>
       <c r="F7" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="95" t="s">
+      <c r="G7" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="95"/>
-      <c r="L7" s="95"/>
-      <c r="M7" s="96"/>
-      <c r="N7" s="95" t="s">
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="96"/>
+      <c r="K7" s="96"/>
+      <c r="L7" s="96"/>
+      <c r="M7" s="97"/>
+      <c r="N7" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="O7" s="95"/>
-      <c r="P7" s="95"/>
-      <c r="Q7" s="95"/>
-      <c r="R7" s="95"/>
-      <c r="S7" s="95"/>
-      <c r="T7" s="96"/>
-      <c r="U7" s="95" t="s">
+      <c r="O7" s="96"/>
+      <c r="P7" s="96"/>
+      <c r="Q7" s="96"/>
+      <c r="R7" s="96"/>
+      <c r="S7" s="96"/>
+      <c r="T7" s="97"/>
+      <c r="U7" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="V7" s="95"/>
-      <c r="W7" s="95"/>
-      <c r="X7" s="95"/>
-      <c r="Y7" s="95"/>
-      <c r="Z7" s="95"/>
-      <c r="AA7" s="96"/>
-      <c r="AB7" s="97" t="s">
+      <c r="V7" s="96"/>
+      <c r="W7" s="96"/>
+      <c r="X7" s="96"/>
+      <c r="Y7" s="96"/>
+      <c r="Z7" s="96"/>
+      <c r="AA7" s="97"/>
+      <c r="AB7" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="AC7" s="95"/>
-      <c r="AD7" s="95"/>
-      <c r="AE7" s="95"/>
-      <c r="AF7" s="95"/>
-      <c r="AG7" s="95"/>
-      <c r="AH7" s="96"/>
-      <c r="AI7" s="95" t="s">
+      <c r="AC7" s="96"/>
+      <c r="AD7" s="96"/>
+      <c r="AE7" s="96"/>
+      <c r="AF7" s="96"/>
+      <c r="AG7" s="96"/>
+      <c r="AH7" s="97"/>
+      <c r="AI7" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="AJ7" s="95"/>
-      <c r="AK7" s="95"/>
-      <c r="AL7" s="95"/>
-      <c r="AM7" s="95"/>
-      <c r="AN7" s="95"/>
-      <c r="AO7" s="96"/>
-      <c r="AP7" s="97" t="s">
+      <c r="AJ7" s="96"/>
+      <c r="AK7" s="96"/>
+      <c r="AL7" s="96"/>
+      <c r="AM7" s="96"/>
+      <c r="AN7" s="96"/>
+      <c r="AO7" s="97"/>
+      <c r="AP7" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="AQ7" s="95"/>
-      <c r="AR7" s="95"/>
-      <c r="AS7" s="95"/>
-      <c r="AT7" s="95"/>
-      <c r="AU7" s="95"/>
-      <c r="AV7" s="96"/>
-      <c r="AW7" s="95" t="s">
+      <c r="AQ7" s="96"/>
+      <c r="AR7" s="96"/>
+      <c r="AS7" s="96"/>
+      <c r="AT7" s="96"/>
+      <c r="AU7" s="96"/>
+      <c r="AV7" s="97"/>
+      <c r="AW7" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="AX7" s="95"/>
-      <c r="AY7" s="95"/>
-      <c r="AZ7" s="95"/>
-      <c r="BA7" s="95"/>
-      <c r="BB7" s="95"/>
-      <c r="BC7" s="96"/>
-      <c r="BD7" s="97" t="s">
+      <c r="AX7" s="96"/>
+      <c r="AY7" s="96"/>
+      <c r="AZ7" s="96"/>
+      <c r="BA7" s="96"/>
+      <c r="BB7" s="96"/>
+      <c r="BC7" s="97"/>
+      <c r="BD7" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="BE7" s="95"/>
-      <c r="BF7" s="95"/>
-      <c r="BG7" s="95"/>
-      <c r="BH7" s="95"/>
-      <c r="BI7" s="95"/>
-      <c r="BJ7" s="98"/>
+      <c r="BE7" s="96"/>
+      <c r="BF7" s="96"/>
+      <c r="BG7" s="96"/>
+      <c r="BH7" s="96"/>
+      <c r="BI7" s="96"/>
+      <c r="BJ7" s="99"/>
     </row>
     <row r="8" spans="1:62" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="10" t="s">
@@ -3114,8 +3096,7 @@
       <c r="AP13" s="59"/>
       <c r="AQ13" s="60"/>
       <c r="AR13" s="55"/>
-      <c r="AS13" s="87"/>
-      <c r="AT13" s="55"/>
+      <c r="AT13" s="87"/>
       <c r="AU13" s="66"/>
       <c r="AV13" s="67"/>
       <c r="AW13" s="59"/>
@@ -3142,11 +3123,11 @@
       </c>
       <c r="C14" s="41">
         <f>SUM(C15:C17)</f>
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="D14" s="42">
         <f>SUM(D15:D17)</f>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="E14" s="32"/>
       <c r="F14" s="31"/>
@@ -3219,7 +3200,7 @@
       </c>
       <c r="D15" s="83">
         <f>SUM(G15:BJ15)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E15" s="50"/>
       <c r="F15" s="89" t="s">
@@ -3227,9 +3208,15 @@
       </c>
       <c r="G15" s="53"/>
       <c r="H15" s="54"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="87"/>
-      <c r="K15" s="63"/>
+      <c r="I15" s="68">
+        <v>4</v>
+      </c>
+      <c r="J15" s="87">
+        <v>1</v>
+      </c>
+      <c r="K15" s="63">
+        <v>1</v>
+      </c>
       <c r="L15" s="57"/>
       <c r="M15" s="58"/>
       <c r="N15" s="53"/>
@@ -3290,11 +3277,11 @@
         <v>28</v>
       </c>
       <c r="C16" s="49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" s="83">
         <f>SUM(G16:BJ16)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E16" s="50"/>
       <c r="F16" s="51"/>
@@ -3302,7 +3289,9 @@
       <c r="H16" s="60"/>
       <c r="I16" s="55"/>
       <c r="J16" s="55"/>
-      <c r="K16" s="63"/>
+      <c r="K16" s="63">
+        <v>1.5</v>
+      </c>
       <c r="L16" s="57"/>
       <c r="M16" s="58"/>
       <c r="N16" s="59"/>
@@ -3433,11 +3422,11 @@
       </c>
       <c r="C18" s="41">
         <f>SUM(C19:C30)</f>
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="D18" s="42">
         <f>SUM(D19:D30)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="31"/>
@@ -3506,7 +3495,7 @@
         <v>34</v>
       </c>
       <c r="C19" s="49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D19" s="83">
         <f>SUM(G19:BJ19)</f>
@@ -3579,32 +3568,41 @@
         <v>48</v>
       </c>
       <c r="C20" s="49">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D20" s="83">
         <f t="shared" ref="D20:D30" si="0">SUM(G20:BJ20)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E20" s="50"/>
       <c r="F20" s="51"/>
       <c r="G20" s="59"/>
       <c r="H20" s="60"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="56"/>
+      <c r="I20" s="68">
+        <v>4</v>
+      </c>
+      <c r="J20" s="68">
+        <v>6</v>
+      </c>
+      <c r="K20" s="68">
+        <v>2</v>
+      </c>
       <c r="L20" s="57"/>
       <c r="M20" s="58"/>
       <c r="N20" s="59"/>
       <c r="O20" s="60"/>
-      <c r="P20" s="55"/>
-      <c r="Q20" s="55"/>
-      <c r="R20" s="56"/>
+      <c r="P20" s="68">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="68"/>
+      <c r="R20" s="68"/>
       <c r="S20" s="57"/>
       <c r="T20" s="58"/>
       <c r="U20" s="59"/>
       <c r="V20" s="60"/>
-      <c r="W20" s="55"/>
-      <c r="X20" s="55"/>
-      <c r="Y20" s="56"/>
+      <c r="W20" s="68"/>
+      <c r="X20" s="68"/>
+      <c r="Y20" s="68"/>
       <c r="Z20" s="57"/>
       <c r="AA20" s="58"/>
       <c r="AB20" s="59"/>
@@ -3623,9 +3621,8 @@
       <c r="AO20" s="58"/>
       <c r="AP20" s="59"/>
       <c r="AQ20" s="60"/>
-      <c r="AR20" s="55"/>
-      <c r="AS20" s="55"/>
-      <c r="AT20" s="56"/>
+      <c r="AR20" s="68"/>
+      <c r="AT20" s="55"/>
       <c r="AU20" s="57"/>
       <c r="AV20" s="58"/>
       <c r="AW20" s="59"/>
@@ -3651,11 +3648,11 @@
         <v>50</v>
       </c>
       <c r="C21" s="49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E21" s="50"/>
       <c r="F21" s="52"/>
@@ -3663,7 +3660,9 @@
       <c r="H21" s="60"/>
       <c r="I21" s="55"/>
       <c r="J21" s="55"/>
-      <c r="K21" s="63"/>
+      <c r="K21" s="63">
+        <v>3</v>
+      </c>
       <c r="L21" s="57"/>
       <c r="M21" s="58"/>
       <c r="N21" s="59"/>
@@ -3724,7 +3723,7 @@
         <v>51</v>
       </c>
       <c r="C22" s="91">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D22" s="83">
         <f t="shared" si="0"/>
@@ -3797,7 +3796,7 @@
         <v>52</v>
       </c>
       <c r="C23" s="49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" s="83">
         <f t="shared" si="0"/>
@@ -3815,7 +3814,6 @@
       <c r="N23" s="59"/>
       <c r="O23" s="60"/>
       <c r="P23" s="61"/>
-      <c r="Q23" s="61"/>
       <c r="R23" s="90"/>
       <c r="S23" s="57"/>
       <c r="T23" s="58"/>
@@ -3869,7 +3867,7 @@
         <v>58</v>
       </c>
       <c r="C24" s="49">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" s="83">
         <f t="shared" si="0"/>
@@ -3941,7 +3939,7 @@
         <v>54</v>
       </c>
       <c r="C25" s="49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" s="83">
         <f t="shared" si="0"/>
@@ -3960,7 +3958,7 @@
       <c r="O25" s="60"/>
       <c r="P25" s="55"/>
       <c r="Q25" s="55"/>
-      <c r="R25" s="103"/>
+      <c r="R25" s="93"/>
       <c r="S25" s="57"/>
       <c r="T25" s="58"/>
       <c r="U25" s="59"/>
@@ -4010,7 +4008,7 @@
         <v>55</v>
       </c>
       <c r="C26" s="49">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D26" s="83">
         <f t="shared" si="0"/>
@@ -4034,10 +4032,9 @@
       <c r="T26" s="58"/>
       <c r="U26" s="59"/>
       <c r="V26" s="60"/>
-      <c r="W26" s="104"/>
-      <c r="Y26" s="92" t="s">
-        <v>16</v>
-      </c>
+      <c r="W26" s="94"/>
+      <c r="X26" s="90"/>
+      <c r="Y26" s="104"/>
       <c r="Z26" s="57"/>
       <c r="AA26" s="58"/>
       <c r="AB26" s="59"/>
@@ -4084,7 +4081,7 @@
         <v>56</v>
       </c>
       <c r="C27" s="49">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D27" s="83">
         <f t="shared" si="0"/>
@@ -4181,8 +4178,7 @@
       <c r="U28" s="59"/>
       <c r="V28" s="60"/>
       <c r="W28" s="55"/>
-      <c r="X28" s="68"/>
-      <c r="Y28" s="56"/>
+      <c r="Y28" s="68"/>
       <c r="Z28" s="57"/>
       <c r="AA28" s="58"/>
       <c r="AB28" s="59"/>
@@ -4229,7 +4225,7 @@
         <v>57</v>
       </c>
       <c r="C29" s="49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" s="83">
         <f t="shared" si="0"/>
@@ -4298,8 +4294,12 @@
       <c r="A30" s="12">
         <v>312</v>
       </c>
-      <c r="B30" s="46"/>
-      <c r="C30" s="49"/>
+      <c r="B30" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="49">
+        <v>8</v>
+      </c>
       <c r="D30" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4343,7 +4343,7 @@
       <c r="AO30" s="58"/>
       <c r="AP30" s="69"/>
       <c r="AQ30" s="70"/>
-      <c r="AR30" s="55"/>
+      <c r="AR30" s="68"/>
       <c r="AS30" s="55"/>
       <c r="AT30" s="56"/>
       <c r="AU30" s="57"/>
@@ -4949,7 +4949,7 @@
       </c>
       <c r="C39" s="41">
         <f>SUM(C40:C42)</f>
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="D39" s="42">
         <f>SUM(D40:D42)</f>
@@ -5067,8 +5067,8 @@
       <c r="AO40" s="58"/>
       <c r="AP40" s="53"/>
       <c r="AQ40" s="54"/>
-      <c r="AR40" s="68"/>
-      <c r="AS40" s="55"/>
+      <c r="AR40" s="55"/>
+      <c r="AS40" s="68"/>
       <c r="AT40" s="56"/>
       <c r="AU40" s="57"/>
       <c r="AV40" s="58"/>
@@ -5095,7 +5095,7 @@
         <v>31</v>
       </c>
       <c r="C41" s="49">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="D41" s="83">
         <f t="shared" ref="D41:D42" si="2">SUM(G41:BJ41)</f>
@@ -5140,8 +5140,8 @@
       <c r="AO41" s="58"/>
       <c r="AP41" s="59"/>
       <c r="AQ41" s="60"/>
-      <c r="AR41" s="68"/>
-      <c r="AS41" s="55"/>
+      <c r="AR41" s="55"/>
+      <c r="AS41" s="68"/>
       <c r="AT41" s="56"/>
       <c r="AU41" s="57"/>
       <c r="AV41" s="58"/>
@@ -5236,11 +5236,11 @@
       </c>
       <c r="C43" s="37">
         <f>C39+C36+C31+C18+C14+C9</f>
-        <v>38</v>
+        <v>80.5</v>
       </c>
       <c r="D43" s="37">
         <f>D39+D36+D31+D18+D14+D9</f>
-        <v>0</v>
+        <v>25.5</v>
       </c>
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
@@ -5254,15 +5254,15 @@
       </c>
       <c r="I43" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J43" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K43" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="L43" s="39">
         <f t="shared" si="3"/>
@@ -5282,7 +5282,7 @@
       </c>
       <c r="P43" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q43" s="39">
         <f t="shared" si="3"/>
@@ -5515,10 +5515,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.4" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="1:6" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="102"/>
+      <c r="B2" s="103"/>
       <c r="C2" s="79" t="s">
         <v>14</v>
       </c>
@@ -5527,11 +5527,11 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="99" t="str">
+      <c r="A3" s="100" t="str">
         <f>Zeitplanung!B9</f>
         <v>Administration, Planung</v>
       </c>
-      <c r="B3" s="100"/>
+      <c r="B3" s="101"/>
       <c r="C3" s="80">
         <f>Zeitplanung!C9</f>
         <v>6</v>
@@ -5544,45 +5544,45 @@
       <c r="F3" s="81"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="99" t="str">
+      <c r="A4" s="100" t="str">
         <f>Zeitplanung!B14</f>
         <v>Analyse &amp; Design</v>
       </c>
-      <c r="B4" s="100"/>
+      <c r="B4" s="101"/>
       <c r="C4" s="80">
         <f>Zeitplanung!C14</f>
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="D4" s="80">
         <f>Zeitplanung!D14</f>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="E4" s="82"/>
       <c r="F4" s="81"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="99" t="str">
+      <c r="A5" s="100" t="str">
         <f>Zeitplanung!B18</f>
         <v>Implementation</v>
       </c>
-      <c r="B5" s="100"/>
+      <c r="B5" s="101"/>
       <c r="C5" s="80">
         <f>Zeitplanung!C18</f>
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="D5" s="80">
         <f>Zeitplanung!D18</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E5" s="82"/>
       <c r="F5" s="81"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="99" t="str">
+      <c r="A6" s="100" t="str">
         <f>Zeitplanung!B31</f>
         <v>Testen</v>
       </c>
-      <c r="B6" s="100"/>
+      <c r="B6" s="101"/>
       <c r="C6" s="80">
         <f>Zeitplanung!C31</f>
         <v>1</v>
@@ -5594,11 +5594,11 @@
       <c r="F6" s="81"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="99" t="str">
+      <c r="A7" s="100" t="str">
         <f>Zeitplanung!B36</f>
         <v>Diverses</v>
       </c>
-      <c r="B7" s="100"/>
+      <c r="B7" s="101"/>
       <c r="C7" s="80">
         <f>Zeitplanung!C36</f>
         <v>1</v>
@@ -5610,14 +5610,14 @@
       <c r="F7" s="81"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="99" t="str">
+      <c r="A8" s="100" t="str">
         <f>Zeitplanung!B39</f>
         <v>Abschluss</v>
       </c>
-      <c r="B8" s="100"/>
+      <c r="B8" s="101"/>
       <c r="C8" s="80">
         <f>Zeitplanung!C39</f>
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="D8" s="80">
         <f>Zeitplanung!D39</f>

--- a/Zeitplanung.xlsx
+++ b/Zeitplanung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BLJ\Projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A4C96C-6AF2-4FF6-BEEC-C0EC8930BC0B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F178D961-5E55-40FA-A9A6-CD0C2543FFE5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="4050" windowWidth="29040" windowHeight="15840" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1448,6 +1448,9 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1478,9 +1481,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1662,7 +1662,7 @@
                   <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2169,8 +2169,8 @@
   </sheetPr>
   <dimension ref="A1:BJ43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AB28" sqref="AB28"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Q44" sqref="Q44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2473,88 +2473,88 @@
     <row r="7" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="9"/>
       <c r="B7" s="27"/>
-      <c r="C7" s="95" t="s">
+      <c r="C7" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="95"/>
+      <c r="D7" s="96"/>
       <c r="E7" s="28" t="s">
         <v>20</v>
       </c>
       <c r="F7" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="96" t="s">
+      <c r="G7" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="96"/>
-      <c r="K7" s="96"/>
-      <c r="L7" s="96"/>
-      <c r="M7" s="97"/>
-      <c r="N7" s="96" t="s">
+      <c r="H7" s="97"/>
+      <c r="I7" s="97"/>
+      <c r="J7" s="97"/>
+      <c r="K7" s="97"/>
+      <c r="L7" s="97"/>
+      <c r="M7" s="98"/>
+      <c r="N7" s="97" t="s">
         <v>36</v>
       </c>
-      <c r="O7" s="96"/>
-      <c r="P7" s="96"/>
-      <c r="Q7" s="96"/>
-      <c r="R7" s="96"/>
-      <c r="S7" s="96"/>
-      <c r="T7" s="97"/>
-      <c r="U7" s="96" t="s">
+      <c r="O7" s="97"/>
+      <c r="P7" s="97"/>
+      <c r="Q7" s="97"/>
+      <c r="R7" s="97"/>
+      <c r="S7" s="97"/>
+      <c r="T7" s="98"/>
+      <c r="U7" s="97" t="s">
         <v>37</v>
       </c>
-      <c r="V7" s="96"/>
-      <c r="W7" s="96"/>
-      <c r="X7" s="96"/>
-      <c r="Y7" s="96"/>
-      <c r="Z7" s="96"/>
-      <c r="AA7" s="97"/>
-      <c r="AB7" s="98" t="s">
+      <c r="V7" s="97"/>
+      <c r="W7" s="97"/>
+      <c r="X7" s="97"/>
+      <c r="Y7" s="97"/>
+      <c r="Z7" s="97"/>
+      <c r="AA7" s="98"/>
+      <c r="AB7" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="AC7" s="96"/>
-      <c r="AD7" s="96"/>
-      <c r="AE7" s="96"/>
-      <c r="AF7" s="96"/>
-      <c r="AG7" s="96"/>
-      <c r="AH7" s="97"/>
-      <c r="AI7" s="96" t="s">
+      <c r="AC7" s="97"/>
+      <c r="AD7" s="97"/>
+      <c r="AE7" s="97"/>
+      <c r="AF7" s="97"/>
+      <c r="AG7" s="97"/>
+      <c r="AH7" s="98"/>
+      <c r="AI7" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="AJ7" s="96"/>
-      <c r="AK7" s="96"/>
-      <c r="AL7" s="96"/>
-      <c r="AM7" s="96"/>
-      <c r="AN7" s="96"/>
-      <c r="AO7" s="97"/>
-      <c r="AP7" s="98" t="s">
+      <c r="AJ7" s="97"/>
+      <c r="AK7" s="97"/>
+      <c r="AL7" s="97"/>
+      <c r="AM7" s="97"/>
+      <c r="AN7" s="97"/>
+      <c r="AO7" s="98"/>
+      <c r="AP7" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="AQ7" s="96"/>
-      <c r="AR7" s="96"/>
-      <c r="AS7" s="96"/>
-      <c r="AT7" s="96"/>
-      <c r="AU7" s="96"/>
-      <c r="AV7" s="97"/>
-      <c r="AW7" s="96" t="s">
+      <c r="AQ7" s="97"/>
+      <c r="AR7" s="97"/>
+      <c r="AS7" s="97"/>
+      <c r="AT7" s="97"/>
+      <c r="AU7" s="97"/>
+      <c r="AV7" s="98"/>
+      <c r="AW7" s="97" t="s">
         <v>41</v>
       </c>
-      <c r="AX7" s="96"/>
-      <c r="AY7" s="96"/>
-      <c r="AZ7" s="96"/>
-      <c r="BA7" s="96"/>
-      <c r="BB7" s="96"/>
-      <c r="BC7" s="97"/>
-      <c r="BD7" s="98" t="s">
+      <c r="AX7" s="97"/>
+      <c r="AY7" s="97"/>
+      <c r="AZ7" s="97"/>
+      <c r="BA7" s="97"/>
+      <c r="BB7" s="97"/>
+      <c r="BC7" s="98"/>
+      <c r="BD7" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="BE7" s="96"/>
-      <c r="BF7" s="96"/>
-      <c r="BG7" s="96"/>
-      <c r="BH7" s="96"/>
-      <c r="BI7" s="96"/>
-      <c r="BJ7" s="99"/>
+      <c r="BE7" s="97"/>
+      <c r="BF7" s="97"/>
+      <c r="BG7" s="97"/>
+      <c r="BH7" s="97"/>
+      <c r="BI7" s="97"/>
+      <c r="BJ7" s="100"/>
     </row>
     <row r="8" spans="1:62" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="10" t="s">
@@ -3426,7 +3426,7 @@
       </c>
       <c r="D18" s="42">
         <f>SUM(D19:D30)</f>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="31"/>
@@ -3727,7 +3727,7 @@
       </c>
       <c r="D22" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E22" s="50"/>
       <c r="F22" s="51"/>
@@ -3740,7 +3740,9 @@
       <c r="M22" s="58"/>
       <c r="N22" s="59"/>
       <c r="O22" s="60"/>
-      <c r="P22" s="68"/>
+      <c r="P22" s="68">
+        <v>5</v>
+      </c>
       <c r="Q22" s="68"/>
       <c r="R22" s="56"/>
       <c r="S22" s="57"/>
@@ -4034,7 +4036,7 @@
       <c r="V26" s="60"/>
       <c r="W26" s="94"/>
       <c r="X26" s="90"/>
-      <c r="Y26" s="104"/>
+      <c r="Y26" s="95"/>
       <c r="Z26" s="57"/>
       <c r="AA26" s="58"/>
       <c r="AB26" s="59"/>
@@ -5240,7 +5242,7 @@
       </c>
       <c r="D43" s="37">
         <f>D39+D36+D31+D18+D14+D9</f>
-        <v>25.5</v>
+        <v>30.5</v>
       </c>
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
@@ -5282,7 +5284,7 @@
       </c>
       <c r="P43" s="39">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="Q43" s="39">
         <f t="shared" si="3"/>
@@ -5515,10 +5517,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.4" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="1:6" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="103"/>
+      <c r="B2" s="104"/>
       <c r="C2" s="79" t="s">
         <v>14</v>
       </c>
@@ -5527,11 +5529,11 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="100" t="str">
+      <c r="A3" s="101" t="str">
         <f>Zeitplanung!B9</f>
         <v>Administration, Planung</v>
       </c>
-      <c r="B3" s="101"/>
+      <c r="B3" s="102"/>
       <c r="C3" s="80">
         <f>Zeitplanung!C9</f>
         <v>6</v>
@@ -5544,11 +5546,11 @@
       <c r="F3" s="81"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="100" t="str">
+      <c r="A4" s="101" t="str">
         <f>Zeitplanung!B14</f>
         <v>Analyse &amp; Design</v>
       </c>
-      <c r="B4" s="101"/>
+      <c r="B4" s="102"/>
       <c r="C4" s="80">
         <f>Zeitplanung!C14</f>
         <v>1.5</v>
@@ -5561,28 +5563,28 @@
       <c r="F4" s="81"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="100" t="str">
+      <c r="A5" s="101" t="str">
         <f>Zeitplanung!B18</f>
         <v>Implementation</v>
       </c>
-      <c r="B5" s="101"/>
+      <c r="B5" s="102"/>
       <c r="C5" s="80">
         <f>Zeitplanung!C18</f>
         <v>68</v>
       </c>
       <c r="D5" s="80">
         <f>Zeitplanung!D18</f>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E5" s="82"/>
       <c r="F5" s="81"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="100" t="str">
+      <c r="A6" s="101" t="str">
         <f>Zeitplanung!B31</f>
         <v>Testen</v>
       </c>
-      <c r="B6" s="101"/>
+      <c r="B6" s="102"/>
       <c r="C6" s="80">
         <f>Zeitplanung!C31</f>
         <v>1</v>
@@ -5594,11 +5596,11 @@
       <c r="F6" s="81"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="100" t="str">
+      <c r="A7" s="101" t="str">
         <f>Zeitplanung!B36</f>
         <v>Diverses</v>
       </c>
-      <c r="B7" s="101"/>
+      <c r="B7" s="102"/>
       <c r="C7" s="80">
         <f>Zeitplanung!C36</f>
         <v>1</v>
@@ -5610,11 +5612,11 @@
       <c r="F7" s="81"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="100" t="str">
+      <c r="A8" s="101" t="str">
         <f>Zeitplanung!B39</f>
         <v>Abschluss</v>
       </c>
-      <c r="B8" s="101"/>
+      <c r="B8" s="102"/>
       <c r="C8" s="80">
         <f>Zeitplanung!C39</f>
         <v>3</v>

--- a/Zeitplanung.xlsx
+++ b/Zeitplanung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BLJ\Projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F178D961-5E55-40FA-A9A6-CD0C2543FFE5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE473A8-178B-4882-9A1E-AF3631F6560F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="4050" windowWidth="29040" windowHeight="15840" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1662,7 +1662,7 @@
                   <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2169,8 +2169,8 @@
   </sheetPr>
   <dimension ref="A1:BJ43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q44" sqref="Q44"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="96" zoomScaleNormal="96" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -3426,7 +3426,7 @@
       </c>
       <c r="D18" s="42">
         <f>SUM(D19:D30)</f>
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="31"/>
@@ -3572,7 +3572,7 @@
       </c>
       <c r="D20" s="83">
         <f t="shared" ref="D20:D30" si="0">SUM(G20:BJ20)</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E20" s="50"/>
       <c r="F20" s="51"/>
@@ -3594,7 +3594,9 @@
       <c r="P20" s="68">
         <v>3</v>
       </c>
-      <c r="Q20" s="68"/>
+      <c r="Q20" s="68">
+        <v>2</v>
+      </c>
       <c r="R20" s="68"/>
       <c r="S20" s="57"/>
       <c r="T20" s="58"/>
@@ -3727,7 +3729,7 @@
       </c>
       <c r="D22" s="83">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E22" s="50"/>
       <c r="F22" s="51"/>
@@ -3743,7 +3745,9 @@
       <c r="P22" s="68">
         <v>5</v>
       </c>
-      <c r="Q22" s="68"/>
+      <c r="Q22" s="68">
+        <v>3</v>
+      </c>
       <c r="R22" s="56"/>
       <c r="S22" s="57"/>
       <c r="T22" s="58"/>
@@ -3802,7 +3806,7 @@
       </c>
       <c r="D23" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" s="50"/>
       <c r="F23" s="51"/>
@@ -3816,6 +3820,9 @@
       <c r="N23" s="59"/>
       <c r="O23" s="60"/>
       <c r="P23" s="61"/>
+      <c r="Q23" s="5">
+        <v>1</v>
+      </c>
       <c r="R23" s="90"/>
       <c r="S23" s="57"/>
       <c r="T23" s="58"/>
@@ -3873,7 +3880,7 @@
       </c>
       <c r="D24" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="50"/>
       <c r="F24" s="51"/>
@@ -3887,7 +3894,9 @@
       <c r="N24" s="59"/>
       <c r="O24" s="60"/>
       <c r="P24" s="55"/>
-      <c r="Q24" s="55"/>
+      <c r="Q24" s="55">
+        <v>1</v>
+      </c>
       <c r="R24" s="90"/>
       <c r="S24" s="57"/>
       <c r="T24" s="58"/>
@@ -3945,7 +3954,7 @@
       </c>
       <c r="D25" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="50"/>
       <c r="F25" s="51"/>
@@ -3959,7 +3968,9 @@
       <c r="N25" s="59"/>
       <c r="O25" s="60"/>
       <c r="P25" s="55"/>
-      <c r="Q25" s="55"/>
+      <c r="Q25" s="55">
+        <v>1</v>
+      </c>
       <c r="R25" s="93"/>
       <c r="S25" s="57"/>
       <c r="T25" s="58"/>
@@ -5242,7 +5253,7 @@
       </c>
       <c r="D43" s="37">
         <f>D39+D36+D31+D18+D14+D9</f>
-        <v>30.5</v>
+        <v>38.5</v>
       </c>
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
@@ -5288,7 +5299,7 @@
       </c>
       <c r="Q43" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R43" s="39">
         <f t="shared" si="3"/>
@@ -5574,7 +5585,7 @@
       </c>
       <c r="D5" s="80">
         <f>Zeitplanung!D18</f>
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E5" s="82"/>
       <c r="F5" s="81"/>

--- a/Zeitplanung.xlsx
+++ b/Zeitplanung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BLJ\Projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE473A8-178B-4882-9A1E-AF3631F6560F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B0D2B0-232A-4B11-A2C6-6DF79B25556F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="4050" windowWidth="29040" windowHeight="15840" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplanung" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="62">
   <si>
     <t>Nr.</t>
   </si>
@@ -258,6 +258,9 @@
   </si>
   <si>
     <t>Mauern zufällig generieren</t>
+  </si>
+  <si>
+    <t>***</t>
   </si>
 </sst>
 </file>
@@ -267,7 +270,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
@@ -379,13 +382,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF92D050"/>
+      <color theme="1"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
@@ -1129,7 +1126,7 @@
     </xf>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1440,14 +1437,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1481,6 +1470,10 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1662,7 +1655,7 @@
                   <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2169,8 +2162,8 @@
   </sheetPr>
   <dimension ref="A1:BJ43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="96" zoomScaleNormal="96" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="96" zoomScaleNormal="96" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="X12" sqref="X12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2473,88 +2466,88 @@
     <row r="7" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="9"/>
       <c r="B7" s="27"/>
-      <c r="C7" s="96" t="s">
+      <c r="C7" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="96"/>
+      <c r="D7" s="94"/>
       <c r="E7" s="28" t="s">
         <v>20</v>
       </c>
       <c r="F7" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="97" t="s">
+      <c r="G7" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="97"/>
-      <c r="I7" s="97"/>
-      <c r="J7" s="97"/>
-      <c r="K7" s="97"/>
-      <c r="L7" s="97"/>
-      <c r="M7" s="98"/>
-      <c r="N7" s="97" t="s">
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="95"/>
+      <c r="L7" s="95"/>
+      <c r="M7" s="96"/>
+      <c r="N7" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="O7" s="97"/>
-      <c r="P7" s="97"/>
-      <c r="Q7" s="97"/>
-      <c r="R7" s="97"/>
-      <c r="S7" s="97"/>
-      <c r="T7" s="98"/>
-      <c r="U7" s="97" t="s">
+      <c r="O7" s="95"/>
+      <c r="P7" s="95"/>
+      <c r="Q7" s="95"/>
+      <c r="R7" s="95"/>
+      <c r="S7" s="95"/>
+      <c r="T7" s="96"/>
+      <c r="U7" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="V7" s="97"/>
-      <c r="W7" s="97"/>
-      <c r="X7" s="97"/>
-      <c r="Y7" s="97"/>
-      <c r="Z7" s="97"/>
-      <c r="AA7" s="98"/>
-      <c r="AB7" s="99" t="s">
+      <c r="V7" s="95"/>
+      <c r="W7" s="95"/>
+      <c r="X7" s="95"/>
+      <c r="Y7" s="95"/>
+      <c r="Z7" s="95"/>
+      <c r="AA7" s="96"/>
+      <c r="AB7" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="AC7" s="97"/>
-      <c r="AD7" s="97"/>
-      <c r="AE7" s="97"/>
-      <c r="AF7" s="97"/>
-      <c r="AG7" s="97"/>
-      <c r="AH7" s="98"/>
-      <c r="AI7" s="97" t="s">
+      <c r="AC7" s="95"/>
+      <c r="AD7" s="95"/>
+      <c r="AE7" s="95"/>
+      <c r="AF7" s="95"/>
+      <c r="AG7" s="95"/>
+      <c r="AH7" s="96"/>
+      <c r="AI7" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="AJ7" s="97"/>
-      <c r="AK7" s="97"/>
-      <c r="AL7" s="97"/>
-      <c r="AM7" s="97"/>
-      <c r="AN7" s="97"/>
-      <c r="AO7" s="98"/>
-      <c r="AP7" s="99" t="s">
+      <c r="AJ7" s="95"/>
+      <c r="AK7" s="95"/>
+      <c r="AL7" s="95"/>
+      <c r="AM7" s="95"/>
+      <c r="AN7" s="95"/>
+      <c r="AO7" s="96"/>
+      <c r="AP7" s="97" t="s">
         <v>40</v>
       </c>
-      <c r="AQ7" s="97"/>
-      <c r="AR7" s="97"/>
-      <c r="AS7" s="97"/>
-      <c r="AT7" s="97"/>
-      <c r="AU7" s="97"/>
-      <c r="AV7" s="98"/>
-      <c r="AW7" s="97" t="s">
+      <c r="AQ7" s="95"/>
+      <c r="AR7" s="95"/>
+      <c r="AS7" s="95"/>
+      <c r="AT7" s="95"/>
+      <c r="AU7" s="95"/>
+      <c r="AV7" s="96"/>
+      <c r="AW7" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="AX7" s="97"/>
-      <c r="AY7" s="97"/>
-      <c r="AZ7" s="97"/>
-      <c r="BA7" s="97"/>
-      <c r="BB7" s="97"/>
-      <c r="BC7" s="98"/>
-      <c r="BD7" s="99" t="s">
+      <c r="AX7" s="95"/>
+      <c r="AY7" s="95"/>
+      <c r="AZ7" s="95"/>
+      <c r="BA7" s="95"/>
+      <c r="BB7" s="95"/>
+      <c r="BC7" s="96"/>
+      <c r="BD7" s="97" t="s">
         <v>42</v>
       </c>
-      <c r="BE7" s="97"/>
-      <c r="BF7" s="97"/>
-      <c r="BG7" s="97"/>
-      <c r="BH7" s="97"/>
-      <c r="BI7" s="97"/>
-      <c r="BJ7" s="100"/>
+      <c r="BE7" s="95"/>
+      <c r="BF7" s="95"/>
+      <c r="BG7" s="95"/>
+      <c r="BH7" s="95"/>
+      <c r="BI7" s="95"/>
+      <c r="BJ7" s="98"/>
     </row>
     <row r="8" spans="1:62" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="10" t="s">
@@ -2988,7 +2981,9 @@
       <c r="H12" s="60"/>
       <c r="I12" s="61"/>
       <c r="J12" s="61"/>
-      <c r="K12" s="63"/>
+      <c r="K12" s="63">
+        <v>1</v>
+      </c>
       <c r="L12" s="57"/>
       <c r="M12" s="58"/>
       <c r="N12" s="59"/>
@@ -3001,7 +2996,9 @@
       <c r="U12" s="59"/>
       <c r="V12" s="60"/>
       <c r="W12" s="61"/>
-      <c r="X12" s="61"/>
+      <c r="X12" s="61">
+        <v>1</v>
+      </c>
       <c r="Y12" s="63"/>
       <c r="Z12" s="57"/>
       <c r="AA12" s="58"/>
@@ -3426,7 +3423,7 @@
       </c>
       <c r="D18" s="42">
         <f>SUM(D19:D30)</f>
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="31"/>
@@ -3572,7 +3569,7 @@
       </c>
       <c r="D20" s="83">
         <f t="shared" ref="D20:D30" si="0">SUM(G20:BJ20)</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E20" s="50"/>
       <c r="F20" s="51"/>
@@ -3602,8 +3599,12 @@
       <c r="T20" s="58"/>
       <c r="U20" s="59"/>
       <c r="V20" s="60"/>
-      <c r="W20" s="68"/>
-      <c r="X20" s="68"/>
+      <c r="W20" s="68">
+        <v>0</v>
+      </c>
+      <c r="X20" s="68">
+        <v>3</v>
+      </c>
       <c r="Y20" s="68"/>
       <c r="Z20" s="57"/>
       <c r="AA20" s="58"/>
@@ -3654,7 +3655,7 @@
       </c>
       <c r="D21" s="83">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E21" s="50"/>
       <c r="F21" s="52"/>
@@ -3663,7 +3664,7 @@
       <c r="I21" s="55"/>
       <c r="J21" s="55"/>
       <c r="K21" s="63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21" s="57"/>
       <c r="M21" s="58"/>
@@ -3729,7 +3730,7 @@
       </c>
       <c r="D22" s="83">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E22" s="50"/>
       <c r="F22" s="51"/>
@@ -3754,7 +3755,9 @@
       <c r="U22" s="59"/>
       <c r="V22" s="60"/>
       <c r="W22" s="55"/>
-      <c r="X22" s="55"/>
+      <c r="X22" s="55">
+        <v>4</v>
+      </c>
       <c r="Y22" s="56"/>
       <c r="Z22" s="57"/>
       <c r="AA22" s="58"/>
@@ -3823,12 +3826,16 @@
       <c r="Q23" s="5">
         <v>1</v>
       </c>
-      <c r="R23" s="90"/>
+      <c r="R23" s="90">
+        <v>0</v>
+      </c>
       <c r="S23" s="57"/>
       <c r="T23" s="58"/>
       <c r="U23" s="59"/>
       <c r="V23" s="60"/>
-      <c r="W23" s="56"/>
+      <c r="W23" s="56" t="s">
+        <v>61</v>
+      </c>
       <c r="Y23" s="56"/>
       <c r="Z23" s="57"/>
       <c r="AA23" s="58"/>
@@ -3897,7 +3904,9 @@
       <c r="Q24" s="55">
         <v>1</v>
       </c>
-      <c r="R24" s="90"/>
+      <c r="R24" s="90">
+        <v>0</v>
+      </c>
       <c r="S24" s="57"/>
       <c r="T24" s="58"/>
       <c r="U24" s="59"/>
@@ -3971,7 +3980,9 @@
       <c r="Q25" s="55">
         <v>1</v>
       </c>
-      <c r="R25" s="93"/>
+      <c r="R25" s="103">
+        <v>0</v>
+      </c>
       <c r="S25" s="57"/>
       <c r="T25" s="58"/>
       <c r="U25" s="59"/>
@@ -4045,9 +4056,11 @@
       <c r="T26" s="58"/>
       <c r="U26" s="59"/>
       <c r="V26" s="60"/>
-      <c r="W26" s="94"/>
+      <c r="W26" s="103">
+        <v>0</v>
+      </c>
       <c r="X26" s="90"/>
-      <c r="Y26" s="95"/>
+      <c r="Y26" s="93"/>
       <c r="Z26" s="57"/>
       <c r="AA26" s="58"/>
       <c r="AB26" s="59"/>
@@ -4118,7 +4131,9 @@
       <c r="T27" s="58"/>
       <c r="U27" s="59"/>
       <c r="V27" s="60"/>
-      <c r="W27" s="68"/>
+      <c r="W27" s="68">
+        <v>0</v>
+      </c>
       <c r="X27" s="90"/>
       <c r="Z27" s="57"/>
       <c r="AA27" s="58"/>
@@ -5253,7 +5268,7 @@
       </c>
       <c r="D43" s="37">
         <f>D39+D36+D31+D18+D14+D9</f>
-        <v>38.5</v>
+        <v>44.5</v>
       </c>
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
@@ -5327,7 +5342,7 @@
       </c>
       <c r="X43" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Y43" s="39">
         <f t="shared" si="3"/>
@@ -5528,10 +5543,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.4" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="1:6" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="104"/>
+      <c r="B2" s="102"/>
       <c r="C2" s="79" t="s">
         <v>14</v>
       </c>
@@ -5540,11 +5555,11 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="101" t="str">
+      <c r="A3" s="99" t="str">
         <f>Zeitplanung!B9</f>
         <v>Administration, Planung</v>
       </c>
-      <c r="B3" s="102"/>
+      <c r="B3" s="100"/>
       <c r="C3" s="80">
         <f>Zeitplanung!C9</f>
         <v>6</v>
@@ -5557,11 +5572,11 @@
       <c r="F3" s="81"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="101" t="str">
+      <c r="A4" s="99" t="str">
         <f>Zeitplanung!B14</f>
         <v>Analyse &amp; Design</v>
       </c>
-      <c r="B4" s="102"/>
+      <c r="B4" s="100"/>
       <c r="C4" s="80">
         <f>Zeitplanung!C14</f>
         <v>1.5</v>
@@ -5574,28 +5589,28 @@
       <c r="F4" s="81"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="101" t="str">
+      <c r="A5" s="99" t="str">
         <f>Zeitplanung!B18</f>
         <v>Implementation</v>
       </c>
-      <c r="B5" s="102"/>
+      <c r="B5" s="100"/>
       <c r="C5" s="80">
         <f>Zeitplanung!C18</f>
         <v>68</v>
       </c>
       <c r="D5" s="80">
         <f>Zeitplanung!D18</f>
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E5" s="82"/>
       <c r="F5" s="81"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="101" t="str">
+      <c r="A6" s="99" t="str">
         <f>Zeitplanung!B31</f>
         <v>Testen</v>
       </c>
-      <c r="B6" s="102"/>
+      <c r="B6" s="100"/>
       <c r="C6" s="80">
         <f>Zeitplanung!C31</f>
         <v>1</v>
@@ -5607,11 +5622,11 @@
       <c r="F6" s="81"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="101" t="str">
+      <c r="A7" s="99" t="str">
         <f>Zeitplanung!B36</f>
         <v>Diverses</v>
       </c>
-      <c r="B7" s="102"/>
+      <c r="B7" s="100"/>
       <c r="C7" s="80">
         <f>Zeitplanung!C36</f>
         <v>1</v>
@@ -5623,11 +5638,11 @@
       <c r="F7" s="81"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="101" t="str">
+      <c r="A8" s="99" t="str">
         <f>Zeitplanung!B39</f>
         <v>Abschluss</v>
       </c>
-      <c r="B8" s="102"/>
+      <c r="B8" s="100"/>
       <c r="C8" s="80">
         <f>Zeitplanung!C39</f>
         <v>3</v>

--- a/Zeitplanung.xlsx
+++ b/Zeitplanung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BLJ\Projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B0D2B0-232A-4B11-A2C6-6DF79B25556F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F32894-7207-4A1C-A7BB-A8EE5511C3A6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="4050" windowWidth="29040" windowHeight="15840" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplanung" sheetId="1" r:id="rId1"/>
@@ -1440,6 +1440,10 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1470,10 +1474,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1655,7 +1655,7 @@
                   <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37</c:v>
+                  <c:v>43.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2162,8 +2162,8 @@
   </sheetPr>
   <dimension ref="A1:BJ43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="96" zoomScaleNormal="96" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="X12" sqref="X12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="96" zoomScaleNormal="96" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AG25" sqref="AG25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2466,88 +2466,88 @@
     <row r="7" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="9"/>
       <c r="B7" s="27"/>
-      <c r="C7" s="94" t="s">
+      <c r="C7" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="94"/>
+      <c r="D7" s="95"/>
       <c r="E7" s="28" t="s">
         <v>20</v>
       </c>
       <c r="F7" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="95" t="s">
+      <c r="G7" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="95"/>
-      <c r="L7" s="95"/>
-      <c r="M7" s="96"/>
-      <c r="N7" s="95" t="s">
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="96"/>
+      <c r="K7" s="96"/>
+      <c r="L7" s="96"/>
+      <c r="M7" s="97"/>
+      <c r="N7" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="O7" s="95"/>
-      <c r="P7" s="95"/>
-      <c r="Q7" s="95"/>
-      <c r="R7" s="95"/>
-      <c r="S7" s="95"/>
-      <c r="T7" s="96"/>
-      <c r="U7" s="95" t="s">
+      <c r="O7" s="96"/>
+      <c r="P7" s="96"/>
+      <c r="Q7" s="96"/>
+      <c r="R7" s="96"/>
+      <c r="S7" s="96"/>
+      <c r="T7" s="97"/>
+      <c r="U7" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="V7" s="95"/>
-      <c r="W7" s="95"/>
-      <c r="X7" s="95"/>
-      <c r="Y7" s="95"/>
-      <c r="Z7" s="95"/>
-      <c r="AA7" s="96"/>
-      <c r="AB7" s="97" t="s">
+      <c r="V7" s="96"/>
+      <c r="W7" s="96"/>
+      <c r="X7" s="96"/>
+      <c r="Y7" s="96"/>
+      <c r="Z7" s="96"/>
+      <c r="AA7" s="97"/>
+      <c r="AB7" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="AC7" s="95"/>
-      <c r="AD7" s="95"/>
-      <c r="AE7" s="95"/>
-      <c r="AF7" s="95"/>
-      <c r="AG7" s="95"/>
-      <c r="AH7" s="96"/>
-      <c r="AI7" s="95" t="s">
+      <c r="AC7" s="96"/>
+      <c r="AD7" s="96"/>
+      <c r="AE7" s="96"/>
+      <c r="AF7" s="96"/>
+      <c r="AG7" s="96"/>
+      <c r="AH7" s="97"/>
+      <c r="AI7" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="AJ7" s="95"/>
-      <c r="AK7" s="95"/>
-      <c r="AL7" s="95"/>
-      <c r="AM7" s="95"/>
-      <c r="AN7" s="95"/>
-      <c r="AO7" s="96"/>
-      <c r="AP7" s="97" t="s">
+      <c r="AJ7" s="96"/>
+      <c r="AK7" s="96"/>
+      <c r="AL7" s="96"/>
+      <c r="AM7" s="96"/>
+      <c r="AN7" s="96"/>
+      <c r="AO7" s="97"/>
+      <c r="AP7" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="AQ7" s="95"/>
-      <c r="AR7" s="95"/>
-      <c r="AS7" s="95"/>
-      <c r="AT7" s="95"/>
-      <c r="AU7" s="95"/>
-      <c r="AV7" s="96"/>
-      <c r="AW7" s="95" t="s">
+      <c r="AQ7" s="96"/>
+      <c r="AR7" s="96"/>
+      <c r="AS7" s="96"/>
+      <c r="AT7" s="96"/>
+      <c r="AU7" s="96"/>
+      <c r="AV7" s="97"/>
+      <c r="AW7" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="AX7" s="95"/>
-      <c r="AY7" s="95"/>
-      <c r="AZ7" s="95"/>
-      <c r="BA7" s="95"/>
-      <c r="BB7" s="95"/>
-      <c r="BC7" s="96"/>
-      <c r="BD7" s="97" t="s">
+      <c r="AX7" s="96"/>
+      <c r="AY7" s="96"/>
+      <c r="AZ7" s="96"/>
+      <c r="BA7" s="96"/>
+      <c r="BB7" s="96"/>
+      <c r="BC7" s="97"/>
+      <c r="BD7" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="BE7" s="95"/>
-      <c r="BF7" s="95"/>
-      <c r="BG7" s="95"/>
-      <c r="BH7" s="95"/>
-      <c r="BI7" s="95"/>
-      <c r="BJ7" s="98"/>
+      <c r="BE7" s="96"/>
+      <c r="BF7" s="96"/>
+      <c r="BG7" s="96"/>
+      <c r="BH7" s="96"/>
+      <c r="BI7" s="96"/>
+      <c r="BJ7" s="99"/>
     </row>
     <row r="8" spans="1:62" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="10" t="s">
@@ -2999,7 +2999,9 @@
       <c r="X12" s="61">
         <v>1</v>
       </c>
-      <c r="Y12" s="63"/>
+      <c r="Y12" s="63">
+        <v>1</v>
+      </c>
       <c r="Z12" s="57"/>
       <c r="AA12" s="58"/>
       <c r="AB12" s="59"/>
@@ -3423,7 +3425,7 @@
       </c>
       <c r="D18" s="42">
         <f>SUM(D19:D30)</f>
-        <v>37</v>
+        <v>43.5</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="31"/>
@@ -3569,7 +3571,7 @@
       </c>
       <c r="D20" s="83">
         <f t="shared" ref="D20:D30" si="0">SUM(G20:BJ20)</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E20" s="50"/>
       <c r="F20" s="51"/>
@@ -3605,7 +3607,9 @@
       <c r="X20" s="68">
         <v>3</v>
       </c>
-      <c r="Y20" s="68"/>
+      <c r="Y20" s="68">
+        <v>2</v>
+      </c>
       <c r="Z20" s="57"/>
       <c r="AA20" s="58"/>
       <c r="AB20" s="59"/>
@@ -3730,7 +3734,7 @@
       </c>
       <c r="D22" s="83">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E22" s="50"/>
       <c r="F22" s="51"/>
@@ -3758,7 +3762,9 @@
       <c r="X22" s="55">
         <v>4</v>
       </c>
-      <c r="Y22" s="56"/>
+      <c r="Y22" s="56">
+        <v>2</v>
+      </c>
       <c r="Z22" s="57"/>
       <c r="AA22" s="58"/>
       <c r="AB22" s="59"/>
@@ -3887,7 +3893,7 @@
       </c>
       <c r="D24" s="83">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="E24" s="50"/>
       <c r="F24" s="51"/>
@@ -3912,7 +3918,9 @@
       <c r="U24" s="59"/>
       <c r="V24" s="60"/>
       <c r="X24" s="55"/>
-      <c r="Y24" s="61"/>
+      <c r="Y24" s="61">
+        <v>2.5</v>
+      </c>
       <c r="Z24" s="57"/>
       <c r="AA24" s="58"/>
       <c r="AB24" s="59"/>
@@ -3980,7 +3988,7 @@
       <c r="Q25" s="55">
         <v>1</v>
       </c>
-      <c r="R25" s="103">
+      <c r="R25" s="94">
         <v>0</v>
       </c>
       <c r="S25" s="57"/>
@@ -4056,7 +4064,7 @@
       <c r="T26" s="58"/>
       <c r="U26" s="59"/>
       <c r="V26" s="60"/>
-      <c r="W26" s="103">
+      <c r="W26" s="94">
         <v>0</v>
       </c>
       <c r="X26" s="90"/>
@@ -5268,7 +5276,7 @@
       </c>
       <c r="D43" s="37">
         <f>D39+D36+D31+D18+D14+D9</f>
-        <v>44.5</v>
+        <v>51</v>
       </c>
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
@@ -5346,7 +5354,7 @@
       </c>
       <c r="Y43" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="Z43" s="39">
         <f t="shared" si="3"/>
@@ -5543,10 +5551,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.4" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="1:6" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="102"/>
+      <c r="B2" s="103"/>
       <c r="C2" s="79" t="s">
         <v>14</v>
       </c>
@@ -5555,11 +5563,11 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="99" t="str">
+      <c r="A3" s="100" t="str">
         <f>Zeitplanung!B9</f>
         <v>Administration, Planung</v>
       </c>
-      <c r="B3" s="100"/>
+      <c r="B3" s="101"/>
       <c r="C3" s="80">
         <f>Zeitplanung!C9</f>
         <v>6</v>
@@ -5572,11 +5580,11 @@
       <c r="F3" s="81"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="99" t="str">
+      <c r="A4" s="100" t="str">
         <f>Zeitplanung!B14</f>
         <v>Analyse &amp; Design</v>
       </c>
-      <c r="B4" s="100"/>
+      <c r="B4" s="101"/>
       <c r="C4" s="80">
         <f>Zeitplanung!C14</f>
         <v>1.5</v>
@@ -5589,28 +5597,28 @@
       <c r="F4" s="81"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="99" t="str">
+      <c r="A5" s="100" t="str">
         <f>Zeitplanung!B18</f>
         <v>Implementation</v>
       </c>
-      <c r="B5" s="100"/>
+      <c r="B5" s="101"/>
       <c r="C5" s="80">
         <f>Zeitplanung!C18</f>
         <v>68</v>
       </c>
       <c r="D5" s="80">
         <f>Zeitplanung!D18</f>
-        <v>37</v>
+        <v>43.5</v>
       </c>
       <c r="E5" s="82"/>
       <c r="F5" s="81"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="99" t="str">
+      <c r="A6" s="100" t="str">
         <f>Zeitplanung!B31</f>
         <v>Testen</v>
       </c>
-      <c r="B6" s="100"/>
+      <c r="B6" s="101"/>
       <c r="C6" s="80">
         <f>Zeitplanung!C31</f>
         <v>1</v>
@@ -5622,11 +5630,11 @@
       <c r="F6" s="81"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="99" t="str">
+      <c r="A7" s="100" t="str">
         <f>Zeitplanung!B36</f>
         <v>Diverses</v>
       </c>
-      <c r="B7" s="100"/>
+      <c r="B7" s="101"/>
       <c r="C7" s="80">
         <f>Zeitplanung!C36</f>
         <v>1</v>
@@ -5638,11 +5646,11 @@
       <c r="F7" s="81"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="99" t="str">
+      <c r="A8" s="100" t="str">
         <f>Zeitplanung!B39</f>
         <v>Abschluss</v>
       </c>
-      <c r="B8" s="100"/>
+      <c r="B8" s="101"/>
       <c r="C8" s="80">
         <f>Zeitplanung!C39</f>
         <v>3</v>

--- a/Zeitplanung.xlsx
+++ b/Zeitplanung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BLJ\Projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F32894-7207-4A1C-A7BB-A8EE5511C3A6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093CF7A8-09FC-4AA5-AB2D-BED3BC6A3A3A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="4050" windowWidth="29040" windowHeight="15840" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1655,7 +1655,7 @@
                   <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43.5</c:v>
+                  <c:v>51.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2162,8 +2162,8 @@
   </sheetPr>
   <dimension ref="A1:BJ43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="96" zoomScaleNormal="96" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AG25" sqref="AG25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="96" zoomScaleNormal="96" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AY27" sqref="AY27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -3425,7 +3425,7 @@
       </c>
       <c r="D18" s="42">
         <f>SUM(D19:D30)</f>
-        <v>43.5</v>
+        <v>51.5</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="31"/>
@@ -4044,7 +4044,7 @@
       </c>
       <c r="D26" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E26" s="50"/>
       <c r="F26" s="51"/>
@@ -4087,7 +4087,9 @@
       <c r="AO26" s="58"/>
       <c r="AP26" s="59"/>
       <c r="AQ26" s="60"/>
-      <c r="AR26" s="55"/>
+      <c r="AR26" s="55">
+        <v>8</v>
+      </c>
       <c r="AS26" s="55"/>
       <c r="AT26" s="56"/>
       <c r="AU26" s="57"/>
@@ -5276,7 +5278,7 @@
       </c>
       <c r="D43" s="37">
         <f>D39+D36+D31+D18+D14+D9</f>
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
@@ -5430,7 +5432,7 @@
       </c>
       <c r="AR43" s="39">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AS43" s="39">
         <f t="shared" si="4"/>
@@ -5608,7 +5610,7 @@
       </c>
       <c r="D5" s="80">
         <f>Zeitplanung!D18</f>
-        <v>43.5</v>
+        <v>51.5</v>
       </c>
       <c r="E5" s="82"/>
       <c r="F5" s="81"/>

--- a/Zeitplanung.xlsx
+++ b/Zeitplanung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BLJ\Projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093CF7A8-09FC-4AA5-AB2D-BED3BC6A3A3A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11217586-10B9-410C-8C25-5895085749F9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="4050" windowWidth="29040" windowHeight="15840" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1655,16 +1655,16 @@
                   <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>51.5</c:v>
+                  <c:v>59.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2163,7 +2163,7 @@
   <dimension ref="A1:BJ43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="96" zoomScaleNormal="96" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AY27" sqref="AY27"/>
+      <selection activeCell="AZ27" sqref="AZ26:AZ27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -3022,7 +3022,9 @@
       <c r="AQ12" s="60"/>
       <c r="AR12" s="61"/>
       <c r="AS12" s="61"/>
-      <c r="AT12" s="56"/>
+      <c r="AT12" s="56">
+        <v>1</v>
+      </c>
       <c r="AU12" s="57"/>
       <c r="AV12" s="58"/>
       <c r="AW12" s="59"/>
@@ -3425,7 +3427,7 @@
       </c>
       <c r="D18" s="42">
         <f>SUM(D19:D30)</f>
-        <v>51.5</v>
+        <v>59.5</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="31"/>
@@ -4044,7 +4046,7 @@
       </c>
       <c r="D26" s="83">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E26" s="50"/>
       <c r="F26" s="51"/>
@@ -4090,7 +4092,9 @@
       <c r="AR26" s="55">
         <v>8</v>
       </c>
-      <c r="AS26" s="55"/>
+      <c r="AS26" s="55">
+        <v>3</v>
+      </c>
       <c r="AT26" s="56"/>
       <c r="AU26" s="57"/>
       <c r="AV26" s="58"/>
@@ -4121,7 +4125,7 @@
       </c>
       <c r="D27" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E27" s="50"/>
       <c r="F27" s="51"/>
@@ -4164,7 +4168,9 @@
       <c r="AP27" s="59"/>
       <c r="AQ27" s="60"/>
       <c r="AR27" s="55"/>
-      <c r="AS27" s="55"/>
+      <c r="AS27" s="55">
+        <v>5</v>
+      </c>
       <c r="AT27" s="56"/>
       <c r="AU27" s="57"/>
       <c r="AV27" s="58"/>
@@ -4413,7 +4419,7 @@
       </c>
       <c r="D31" s="42">
         <f>SUM(D32:D35)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E31" s="32"/>
       <c r="F31" s="31"/>
@@ -4486,7 +4492,7 @@
       </c>
       <c r="D32" s="83">
         <f>SUM(G32:BJ32)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" s="50"/>
       <c r="F32" s="51"/>
@@ -4529,7 +4535,9 @@
       <c r="AQ32" s="54"/>
       <c r="AR32" s="68"/>
       <c r="AS32" s="55"/>
-      <c r="AT32" s="56"/>
+      <c r="AT32" s="56">
+        <v>1</v>
+      </c>
       <c r="AU32" s="57"/>
       <c r="AV32" s="58"/>
       <c r="AW32" s="53"/>
@@ -4559,7 +4567,7 @@
       </c>
       <c r="D33" s="83">
         <f t="shared" ref="D33:D35" si="1">SUM(G33:BJ33)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" s="50"/>
       <c r="F33" s="51"/>
@@ -4602,7 +4610,9 @@
       <c r="AQ33" s="60"/>
       <c r="AR33" s="68"/>
       <c r="AS33" s="55"/>
-      <c r="AT33" s="56"/>
+      <c r="AT33" s="56">
+        <v>1</v>
+      </c>
       <c r="AU33" s="57"/>
       <c r="AV33" s="58"/>
       <c r="AW33" s="59"/>
@@ -4991,7 +5001,7 @@
       </c>
       <c r="D39" s="42">
         <f>SUM(D40:D42)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E39" s="32"/>
       <c r="F39" s="31"/>
@@ -5064,7 +5074,7 @@
       </c>
       <c r="D40" s="83">
         <f>SUM(G40:BJ40)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E40" s="50"/>
       <c r="F40" s="51"/>
@@ -5107,7 +5117,9 @@
       <c r="AQ40" s="54"/>
       <c r="AR40" s="55"/>
       <c r="AS40" s="68"/>
-      <c r="AT40" s="56"/>
+      <c r="AT40" s="56">
+        <v>2</v>
+      </c>
       <c r="AU40" s="57"/>
       <c r="AV40" s="58"/>
       <c r="AW40" s="53"/>
@@ -5137,7 +5149,7 @@
       </c>
       <c r="D41" s="83">
         <f t="shared" ref="D41:D42" si="2">SUM(G41:BJ41)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E41" s="50"/>
       <c r="F41" s="51"/>
@@ -5180,7 +5192,9 @@
       <c r="AQ41" s="60"/>
       <c r="AR41" s="55"/>
       <c r="AS41" s="68"/>
-      <c r="AT41" s="56"/>
+      <c r="AT41" s="56">
+        <v>3</v>
+      </c>
       <c r="AU41" s="57"/>
       <c r="AV41" s="58"/>
       <c r="AW41" s="59"/>
@@ -5278,7 +5292,7 @@
       </c>
       <c r="D43" s="37">
         <f>D39+D36+D31+D18+D14+D9</f>
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
@@ -5436,11 +5450,11 @@
       </c>
       <c r="AS43" s="39">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AT43" s="39">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AU43" s="39">
         <f t="shared" si="4"/>
@@ -5610,7 +5624,7 @@
       </c>
       <c r="D5" s="80">
         <f>Zeitplanung!D18</f>
-        <v>51.5</v>
+        <v>59.5</v>
       </c>
       <c r="E5" s="82"/>
       <c r="F5" s="81"/>
@@ -5627,7 +5641,7 @@
       </c>
       <c r="D6" s="80">
         <f>Zeitplanung!D31</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F6" s="81"/>
     </row>
@@ -5659,7 +5673,7 @@
       </c>
       <c r="D8" s="80">
         <f>Zeitplanung!D39</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F8" s="81"/>
     </row>
